--- a/Praca dyplomowa, wyniki.xlsx
+++ b/Praca dyplomowa, wyniki.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TTT ab 1" sheetId="1" r:id="rId1"/>
     <sheet name="TTT mm" sheetId="3" r:id="rId2"/>
     <sheet name="CF mm" sheetId="4" r:id="rId3"/>
+    <sheet name="Fake CF ab" sheetId="6" r:id="rId4"/>
+    <sheet name="CF real AB" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="15">
   <si>
     <t>Iteration</t>
   </si>
@@ -46,18 +49,41 @@
     <t>Raw</t>
   </si>
   <si>
-    <t>Depth-Gen_time-MM_time:</t>
+    <t>Checks</t>
   </si>
   <si>
-    <t>Checks</t>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Time/Moves</t>
+  </si>
+  <si>
+    <t>Depth-Checks-Gen_time-MM_time:</t>
+  </si>
+  <si>
+    <t>Depth-AB-Cuts-Gen_time-MM_time:</t>
+  </si>
+  <si>
+    <t>Cuts</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time/Checks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -89,11 +115,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,6 +1492,1704 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> to check each move</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CF mm'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time/Moves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CF mm'!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CF mm'!$J$4:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.6943657404652822E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0151282875163629E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.409436986790432E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8091281685112461E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1369628614008943E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0157425943621594E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6151231502996209E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6062149145520456E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6304757079760976E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3976457633946555E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6676709370951493E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC01-42B9-A8DE-74FE5F67A663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="370643040"/>
+        <c:axId val="370643368"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$K$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$E$4:$E$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>16807</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16806</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16806</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16806</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16775</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16744</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16354</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7724</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7698</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7447</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6947</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$K$4:$K$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-AC01-42B9-A8DE-74FE5F67A663}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370643040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370643368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370643368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370643040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> to check each move</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CF mm'!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time/Moves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CF mm'!$E$19:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>823536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>823452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>821940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>769020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>761453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>753172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>708540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243320</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98574</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2156</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CF mm'!$J$19:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.581572658633017E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1967410498729737E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2313617964814948E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8467349314712231E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.623635223710459E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5355022106504223E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5666331682050415E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2639378890746821E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5063980108499095E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8067925659024718E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8425274311684623E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2836617542927951E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0922866300366301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1523766233766234E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3429637276785715E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4181607142857143E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9595204081632651E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1169642857142854E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9281E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.805E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE56-4EE4-8DD1-F9E192532763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="370643040"/>
+        <c:axId val="370643368"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$K$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$E$19:$E$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>823536</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>823452</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>821940</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>769020</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>761453</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>753172</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>708540</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>248185</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>243320</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>160692</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>98574</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22596</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2184</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2156</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1792</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>560</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$K$4:$K$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-EE56-4EE4-8DD1-F9E192532763}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370643040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370643368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370643368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370643040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> to check each move</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CF mm'!$J$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time/Moves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CF mm'!$E$43:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CF mm'!$J$43:$J$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.5279416909620998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8637405247813409E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3161107871720114E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5020466472303209E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.336997084548105E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9638425655976676E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.834673469387755E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2997813411078719E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7016384839650149E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5593148688046646E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6814460641399417E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3465626822157435E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8496345029239765E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9380674486803521E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3334852941176471E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9642492211838004E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8601374999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7556-4166-8067-7F5E77A0D121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="370643040"/>
+        <c:axId val="370643368"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$K$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$E$43:$E$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>343</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>342</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>341</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>321</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>320</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CF mm'!$K$4:$K$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7556-4166-8067-7F5E77A0D121}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370643040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370643368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370643368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370643040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1583,6 +3310,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2590,6 +4437,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3202,6 +6558,123 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6481E6F8-B880-4010-9E3F-BBCC8759C87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6483D4C7-5361-4112-B2BA-A4DE9F11ABF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B583C02-B9CB-4E8D-A82A-31226F01C813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4486,7 +7959,7 @@
   <dimension ref="B2:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,7 +7980,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -4746,7 +8219,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -4982,7 +8455,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
@@ -5219,576 +8692,4387 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:X26"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>16807</v>
+      </c>
+      <c r="F4">
+        <v>61.175981999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.91522300000000001</v>
+      </c>
+      <c r="H4">
+        <f>F4+G4</f>
+        <v>62.091204999999995</v>
+      </c>
+      <c r="J4">
+        <f>H4/E4</f>
+        <v>3.6943657404652822E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(J43:J59)</f>
+        <v>3.1693923633422539E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <f>AVERAGE(H43:H54)</f>
+        <v>1.2719869166666666</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>16806</v>
+      </c>
+      <c r="F5">
+        <v>83.941704000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.34254200000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H36" si="0">F5+G5</f>
+        <v>84.284245999999996</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J14" si="1">H5/E5</f>
+        <v>5.0151282875163629E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(J66:J79)</f>
+        <v>3.0565915466592838E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <f>AVERAGE(H66:H73)</f>
+        <v>8.7710798750000016</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>16806</v>
+      </c>
+      <c r="F6">
+        <v>40.083177999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.40982000000000002</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>40.492998</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>2.409436986790432E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(J4:J14)</f>
+        <v>2.7270813738512682E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <f>AVERAGE(H4:H10)</f>
+        <v>51.875360999999998</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>16806</v>
+      </c>
+      <c r="F7">
+        <v>29.90906</v>
+      </c>
+      <c r="G7">
+        <v>0.49514799999999998</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>30.404208000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.8091281685112461E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(J85:J97)</f>
+        <v>2.2980312691810627E-3</v>
+      </c>
+      <c r="C8" s="5">
+        <f>AVERAGE(H85:H94)</f>
+        <v>267.18130039999994</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>16775</v>
+      </c>
+      <c r="F8">
+        <v>35.495573999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.35197800000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>35.847552</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>2.1369628614008943E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(J19:J38)</f>
+        <v>4.5349385539784027E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <f>AVERAGE(H19:H22)</f>
+        <v>3224.027611</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>16744</v>
+      </c>
+      <c r="F9">
+        <v>66.875720000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.36387399999999998</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>67.239593999999997</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>4.0157425943621594E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>16354</v>
+      </c>
+      <c r="F10">
+        <v>42.479331999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.28839199999999998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>42.767724000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>2.6151231502996209E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>7724</v>
+      </c>
+      <c r="F11">
+        <v>19.92652</v>
+      </c>
+      <c r="G11">
+        <v>0.20388400000000001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>20.130403999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>2.6062149145520456E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>7698</v>
+      </c>
+      <c r="F12">
+        <v>12.388541</v>
+      </c>
+      <c r="G12">
+        <v>0.16286100000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>12.551402</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.6304757079760976E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>7447</v>
+      </c>
+      <c r="F13">
+        <v>17.675587</v>
+      </c>
+      <c r="G13">
+        <v>0.17968100000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>17.855267999999999</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2.3976457633946555E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>6947</v>
+      </c>
+      <c r="F14">
+        <v>11.457318000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.12799199999999999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>11.585310000000002</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1.6676709370951493E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>AVERAGE(J4:J14)</f>
+        <v>2.7270813738512682E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>823536</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4590.3634469999997</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6.2625739999999999</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>4596.626021</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <f>H19/E19</f>
+        <v>5.581572658633017E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>823452</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2629.048151</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3.3146599999999999</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>2632.362811</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <f t="shared" ref="J20:J38" si="2">H20/E20</f>
+        <v>3.1967410498729737E-3</v>
+      </c>
+      <c r="W20" t="s">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+      <c r="Y20">
+        <v>823494</v>
+      </c>
+      <c r="Z20">
+        <v>5000.7626389999996</v>
+      </c>
+      <c r="AA20">
+        <v>59.060046</v>
+      </c>
+      <c r="AB20">
+        <f>SUM(Z20:AA20)</f>
+        <v>5059.8226849999992</v>
+      </c>
+      <c r="AC20">
+        <f>AB20/Y20</f>
+        <v>6.1443346096024974E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>821940</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3473.733373</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4.1921419999999996</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>3477.9255149999999</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2313617964814948E-3</v>
+      </c>
+      <c r="W21" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>7</v>
+      </c>
+      <c r="Y21">
+        <v>822696</v>
+      </c>
+      <c r="Z21">
+        <v>2777.6288610000001</v>
+      </c>
+      <c r="AA21">
+        <v>41.074635999999998</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ref="AB21:AB37" si="3">SUM(Z21:AA21)</f>
+        <v>2818.703497</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21:AC37" si="4">AB21/Y21</f>
+        <v>3.4261786820405107E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>769020</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2186.4647839999998</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.7313130000000001</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>2189.196097</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8467349314712231E-3</v>
+      </c>
+      <c r="W22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>7</v>
+      </c>
+      <c r="Y22">
+        <v>815094</v>
+      </c>
+      <c r="Z22">
+        <v>2990.1361470000002</v>
+      </c>
+      <c r="AA22">
+        <v>41.067661999999999</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>3031.2038090000001</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>3.7188395559285188E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>761453</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1987.742733</v>
+      </c>
+      <c r="G23" s="4">
+        <v>10.032178999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>1997.7749120000001</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>2.623635223710459E-3</v>
+      </c>
+      <c r="W23" t="s">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>606438</v>
+      </c>
+      <c r="Z23">
+        <v>2595.7793510000001</v>
+      </c>
+      <c r="AA23">
+        <v>37.321334</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>2633.1006850000003</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>4.3419124213852044E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>753172</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2658.3283289999999</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4.5129419999999998</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>2662.8412709999998</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5355022106504223E-3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>598703</v>
+      </c>
+      <c r="Z24">
+        <v>1529.608174</v>
+      </c>
+      <c r="AA24">
+        <v>30.930178000000002</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>1560.538352</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="4"/>
+        <v>2.6065317060378853E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>708540</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2522.77844</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4.3238250000000003</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>2527.102265</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5666331682050415E-3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <v>7</v>
+      </c>
+      <c r="Y25">
+        <v>559286</v>
+      </c>
+      <c r="Z25">
+        <v>1700.5153049999999</v>
+      </c>
+      <c r="AA25">
+        <v>37.146982000000001</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>1737.6622869999999</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="4"/>
+        <v>3.1069297050167533E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>248185</v>
+      </c>
+      <c r="F26" s="4">
+        <v>556.16009799999995</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.7153270000000003</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>561.87542499999995</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2639378890746821E-3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>10</v>
+      </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
+      <c r="Y26">
+        <v>557816</v>
+      </c>
+      <c r="Z26">
+        <v>1575.221726</v>
+      </c>
+      <c r="AA26">
+        <v>29.114037</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="3"/>
+        <v>1604.335763</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="4"/>
+        <v>2.8761020892193842E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>243320</v>
+      </c>
+      <c r="F27" s="4">
+        <v>606.07690400000001</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3.7798600000000002</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>609.856764</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5063980108499095E-3</v>
+      </c>
+      <c r="W27" t="s">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>512211</v>
+      </c>
+      <c r="Z27">
+        <v>1869.427019</v>
+      </c>
+      <c r="AA27">
+        <v>27.141596</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="3"/>
+        <v>1896.5686149999999</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="4"/>
+        <v>3.7027096548102245E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>160692</v>
+      </c>
+      <c r="F28" s="4">
+        <v>287.235771</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3.10134</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>290.33711099999999</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8067925659024718E-3</v>
+      </c>
+      <c r="W28" t="s">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>512127</v>
+      </c>
+      <c r="Z28">
+        <v>1395.5748040000001</v>
+      </c>
+      <c r="AA28">
+        <v>27.042726999999999</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>1422.6175310000001</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="4"/>
+        <v>2.7778608255374158E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>98574</v>
+      </c>
+      <c r="F29" s="4">
+        <v>179.011312</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.6139869999999998</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>181.62529900000001</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8425274311684623E-3</v>
+      </c>
+      <c r="W29" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>7</v>
+      </c>
+      <c r="Y29">
+        <v>504462</v>
+      </c>
+      <c r="Z29">
+        <v>1297.5947120000001</v>
+      </c>
+      <c r="AA29">
+        <v>26.271062000000001</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="3"/>
+        <v>1323.8657740000001</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="4"/>
+        <v>2.6243121860516751E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>22596</v>
+      </c>
+      <c r="F30" s="4">
+        <v>50.944842000000001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.656779</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>51.601621000000002</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2836617542927951E-3</v>
+      </c>
+      <c r="W30" t="s">
+        <v>10</v>
+      </c>
+      <c r="X30">
+        <v>7</v>
+      </c>
+      <c r="Y30">
+        <v>465822</v>
+      </c>
+      <c r="Z30">
+        <v>953.239822</v>
+      </c>
+      <c r="AA30">
+        <v>25.857129</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>979.09695099999999</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="4"/>
+        <v>2.1018692783938931E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>2184</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4.5359150000000001</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3.3639000000000002E-2</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5695540000000001</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0922866300366301E-3</v>
+      </c>
+      <c r="W31" t="s">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
+        <v>421757</v>
+      </c>
+      <c r="Z31">
+        <v>1034.3323130000001</v>
+      </c>
+      <c r="AA31">
+        <v>23.832585999999999</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="3"/>
+        <v>1058.1648990000001</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="4"/>
+        <v>2.5089444846202909E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>2156</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4.6290370000000003</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1.1487000000000001E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6405240000000001</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1523766233766234E-3</v>
+      </c>
+      <c r="W32" t="s">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>7</v>
+      </c>
+      <c r="Y32">
+        <v>215915</v>
+      </c>
+      <c r="Z32">
+        <v>425.531068</v>
+      </c>
+      <c r="AA32">
+        <v>13.272551999999999</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="3"/>
+        <v>438.80362000000002</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="4"/>
+        <v>2.0322979876340229E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>1792</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5.9737720000000003</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1.6819000000000001E-2</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>5.9905910000000002</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3429637276785715E-3</v>
+      </c>
+      <c r="W33" t="s">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <v>7</v>
+      </c>
+      <c r="Y33">
+        <v>139839</v>
+      </c>
+      <c r="Z33">
+        <v>397.21864299999999</v>
+      </c>
+      <c r="AA33">
+        <v>9.5188400000000009</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="3"/>
+        <v>406.737483</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="4"/>
+        <v>2.908612640250574E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>560</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1.3492470000000001</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4.9230000000000003E-3</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3541700000000001</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4181607142857143E-3</v>
+      </c>
+      <c r="W34" t="s">
+        <v>10</v>
+      </c>
+      <c r="X34">
+        <v>7</v>
+      </c>
+      <c r="Y34">
+        <v>37457</v>
+      </c>
+      <c r="Z34">
+        <v>89.038053000000005</v>
+      </c>
+      <c r="AA34">
+        <v>2.671084</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="3"/>
+        <v>91.709136999999998</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="4"/>
+        <v>2.4483844675227593E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>98</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.28675099999999998</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29003299999999999</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9595204081632651E-3</v>
+      </c>
+      <c r="W35" t="s">
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <v>7</v>
+      </c>
+      <c r="Y35">
+        <v>19761</v>
+      </c>
+      <c r="Z35">
+        <v>53.863512999999998</v>
+      </c>
+      <c r="AA35">
+        <v>1.8456779999999999</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="3"/>
+        <v>55.709190999999997</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="4"/>
+        <v>2.8191483730580433E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.113634</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.115275</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1169642857142854E-3</v>
+      </c>
+      <c r="W36" t="s">
+        <v>10</v>
+      </c>
+      <c r="X36">
+        <v>7</v>
+      </c>
+      <c r="Y36">
+        <v>4515</v>
+      </c>
+      <c r="Z36">
+        <v>14.395384</v>
+      </c>
+      <c r="AA36">
+        <v>0.51485300000000001</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="3"/>
+        <v>14.910237</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="4"/>
+        <v>3.3023780730897013E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1.8460000000000001E-2</v>
+      </c>
+      <c r="G37" s="4">
+        <v>8.2100000000000001E-4</v>
+      </c>
+      <c r="H37" s="4">
+        <f>F37+G37</f>
+        <v>1.9281E-2</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9281E-2</v>
+      </c>
+      <c r="W37" t="s">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <v>7</v>
+      </c>
+      <c r="Y37">
+        <v>420</v>
+      </c>
+      <c r="Z37">
+        <v>5.2584790000000003</v>
+      </c>
+      <c r="AA37">
+        <v>0.13291800000000001</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="3"/>
+        <v>5.3913970000000004</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="4"/>
+        <v>1.2836659523809526E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="G38" s="4">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="H38" s="4">
+        <f>F38+G38</f>
+        <v>1.805E-2</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>1.805E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f>AVERAGE(J19:J38)</f>
+        <v>4.5349385539784027E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>343</v>
+      </c>
+      <c r="F43">
+        <v>1.8960840000000001</v>
+      </c>
+      <c r="G43">
+        <v>3.2407999999999999E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H59" si="5">F43+G43</f>
+        <v>1.9284920000000001</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:J59" si="6">F43/E43</f>
+        <v>5.5279416909620998E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>343</v>
+      </c>
+      <c r="F44">
+        <v>2.697263</v>
+      </c>
+      <c r="G44">
+        <v>1.5998999999999999E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>2.7132619999999998</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>7.8637405247813409E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>343</v>
+      </c>
+      <c r="F45">
+        <v>2.166426</v>
+      </c>
+      <c r="G45">
+        <v>9.8449999999999996E-3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>2.1762709999999998</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="6"/>
+        <v>6.3161107871720114E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>343</v>
+      </c>
+      <c r="F46">
+        <v>0.85820200000000002</v>
+      </c>
+      <c r="G46">
+        <v>6.5630000000000003E-3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>0.86476500000000001</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="6"/>
+        <v>2.5020466472303209E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>343</v>
+      </c>
+      <c r="F47">
+        <v>0.80159000000000002</v>
+      </c>
+      <c r="G47">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>0.81881999999999999</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>2.336997084548105E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>343</v>
+      </c>
+      <c r="F48">
+        <v>0.67359800000000003</v>
+      </c>
+      <c r="G48">
+        <v>1.3948E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>0.68754599999999999</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>1.9638425655976676E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>343</v>
+      </c>
+      <c r="F49">
+        <v>0.62929299999999999</v>
+      </c>
+      <c r="G49">
+        <v>8.2050000000000005E-3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>0.63749800000000001</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>1.834673469387755E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>343</v>
+      </c>
+      <c r="F50">
+        <v>1.1318250000000001</v>
+      </c>
+      <c r="G50">
+        <v>3.2818E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>1.1646430000000001</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="6"/>
+        <v>3.2997813411078719E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>343</v>
+      </c>
+      <c r="F51">
+        <v>1.2696620000000001</v>
+      </c>
+      <c r="G51">
+        <v>1.1486E-2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>1.2811480000000002</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>3.7016384839650149E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>343</v>
+      </c>
+      <c r="F52">
+        <v>1.220845</v>
+      </c>
+      <c r="G52">
+        <v>1.2716999999999999E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>1.233562</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="6"/>
+        <v>3.5593148688046646E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>343</v>
+      </c>
+      <c r="F53">
+        <v>0.919736</v>
+      </c>
+      <c r="G53">
+        <v>1.6409E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>0.936145</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="6"/>
+        <v>2.6814460641399417E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>343</v>
+      </c>
+      <c r="F54">
+        <v>0.804871</v>
+      </c>
+      <c r="G54">
+        <v>1.6820000000000002E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>0.82169099999999995</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="6"/>
+        <v>2.3465626822157435E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>342</v>
+      </c>
+      <c r="F55">
+        <v>0.632575</v>
+      </c>
+      <c r="G55">
+        <v>1.1487000000000001E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>0.64406200000000002</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="6"/>
+        <v>1.8496345029239765E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>341</v>
+      </c>
+      <c r="F56">
+        <v>0.66088100000000005</v>
+      </c>
+      <c r="G56">
+        <v>1.1076000000000001E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>0.67195700000000003</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="6"/>
+        <v>1.9380674486803521E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>340</v>
+      </c>
+      <c r="F57">
+        <v>0.79338500000000001</v>
+      </c>
+      <c r="G57">
+        <v>9.025E-3</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>0.80240999999999996</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="6"/>
+        <v>2.3334852941176471E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>321</v>
+      </c>
+      <c r="F58">
+        <v>0.63052399999999997</v>
+      </c>
+      <c r="G58">
+        <v>1.3537E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>0.64406099999999999</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="6"/>
+        <v>1.9642492211838004E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>320</v>
+      </c>
+      <c r="F59">
+        <v>0.595244</v>
+      </c>
+      <c r="G59">
+        <v>2.5024000000000001E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>0.62026800000000004</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="6"/>
+        <v>1.8601374999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f>AVERAGE(J43:J59)</f>
+        <v>3.1693923633422539E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>2401</v>
+      </c>
+      <c r="F66">
+        <v>15.768427000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.129223</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H79" si="7">F66+G66</f>
+        <v>15.897650000000001</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J79" si="8">F66/E66</f>
+        <v>6.5674414827155353E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>2401</v>
+      </c>
+      <c r="F67">
+        <v>8.8150250000000003</v>
+      </c>
+      <c r="G67">
+        <v>0.19773099999999999</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="7"/>
+        <v>9.0127559999999995</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="8"/>
+        <v>3.6713973344439819E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>2401</v>
+      </c>
+      <c r="F68">
+        <v>15.744634</v>
+      </c>
+      <c r="G68">
+        <v>0.106249</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>15.850883</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="8"/>
+        <v>6.5575318617242815E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>2401</v>
+      </c>
+      <c r="F69">
+        <v>6.0521260000000003</v>
+      </c>
+      <c r="G69">
+        <v>4.1842999999999998E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>6.0939690000000004</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>2.5206688879633489E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>2401</v>
+      </c>
+      <c r="F70">
+        <v>6.3540549999999998</v>
+      </c>
+      <c r="G70">
+        <v>8.7378999999999998E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>6.4414340000000001</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>2.6464202415660142E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>2399</v>
+      </c>
+      <c r="F71">
+        <v>6.2498570000000004</v>
+      </c>
+      <c r="G71">
+        <v>5.0048000000000002E-2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>6.2999050000000008</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>2.6051925802417675E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>2374</v>
+      </c>
+      <c r="F72">
+        <v>6.0439210000000001</v>
+      </c>
+      <c r="G72">
+        <v>5.2920000000000002E-2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>6.0968410000000004</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>2.5458807919123841E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>2373</v>
+      </c>
+      <c r="F73">
+        <v>4.422282</v>
+      </c>
+      <c r="G73">
+        <v>5.2919000000000001E-2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>4.4752010000000002</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>1.8635828065739571E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>2133</v>
+      </c>
+      <c r="F74">
+        <v>4.1203519999999996</v>
+      </c>
+      <c r="G74">
+        <v>7.6713000000000003E-2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>4.1970649999999994</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="8"/>
+        <v>1.9317168307548052E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>1273</v>
+      </c>
+      <c r="F75">
+        <v>3.3327089999999999</v>
+      </c>
+      <c r="G75">
+        <v>2.5024999999999999E-2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>3.3577339999999998</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>2.6179960722702276E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>1253</v>
+      </c>
+      <c r="F76">
+        <v>4.1876290000000003</v>
+      </c>
+      <c r="G76">
+        <v>2.5024000000000001E-2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>4.2126530000000004</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="8"/>
+        <v>3.342082202713488E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>1252</v>
+      </c>
+      <c r="F77">
+        <v>2.567631</v>
+      </c>
+      <c r="G77">
+        <v>3.1586999999999997E-2</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>2.599218</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>2.050823482428115E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>1232</v>
+      </c>
+      <c r="F78">
+        <v>2.493379</v>
+      </c>
+      <c r="G78">
+        <v>3.3639000000000002E-2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>2.527018</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>2.0238465909090909E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>1232</v>
+      </c>
+      <c r="F79">
+        <v>2.276367</v>
+      </c>
+      <c r="G79">
+        <v>5.7429999999999998E-3</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>2.2821099999999999</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>1.8477004870129871E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>117648</v>
+      </c>
+      <c r="F85">
+        <v>329.53952399999997</v>
+      </c>
+      <c r="G85">
+        <v>1.591693</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85:H97" si="9">F85+G85</f>
+        <v>331.13121699999999</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ref="J85:J97" si="10">F85/E85</f>
+        <v>2.8010635454916357E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>117646</v>
+      </c>
+      <c r="F86">
+        <v>449.47318200000001</v>
+      </c>
+      <c r="G86">
+        <v>0.36633599999999999</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="9"/>
+        <v>449.839518</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="10"/>
+        <v>3.8205564320078884E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>117644</v>
+      </c>
+      <c r="F87">
+        <v>362.74847699999998</v>
+      </c>
+      <c r="G87">
+        <v>0.34377200000000002</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="9"/>
+        <v>363.09224899999998</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="10"/>
+        <v>3.0834422239978238E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>117572</v>
+      </c>
+      <c r="F88">
+        <v>223.83510999999999</v>
+      </c>
+      <c r="G88">
+        <v>0.34992699999999999</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="9"/>
+        <v>224.18503699999999</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="10"/>
+        <v>1.9038130677372163E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>117535</v>
+      </c>
+      <c r="F89">
+        <v>256.65147100000002</v>
+      </c>
+      <c r="G89">
+        <v>0.298238</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="9"/>
+        <v>256.94970900000004</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="10"/>
+        <v>2.1836173990726166E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>116959</v>
+      </c>
+      <c r="F90">
+        <v>185.493359</v>
+      </c>
+      <c r="G90">
+        <v>0.33146599999999998</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="9"/>
+        <v>185.824825</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="10"/>
+        <v>1.5859690917330005E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>116887</v>
+      </c>
+      <c r="F91">
+        <v>262.39633500000002</v>
+      </c>
+      <c r="G91">
+        <v>0.45371499999999998</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="9"/>
+        <v>262.85005000000001</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="10"/>
+        <v>2.2448718420354703E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>116346</v>
+      </c>
+      <c r="F92">
+        <v>185.159842</v>
+      </c>
+      <c r="G92">
+        <v>0.58252700000000002</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="9"/>
+        <v>185.742369</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="10"/>
+        <v>1.5914585976312034E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>111486</v>
+      </c>
+      <c r="F93">
+        <v>241.737965</v>
+      </c>
+      <c r="G93">
+        <v>0.16983500000000001</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="9"/>
+        <v>241.90780000000001</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="10"/>
+        <v>2.1683257539063202E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>110406</v>
+      </c>
+      <c r="F94">
+        <v>170.11834300000001</v>
+      </c>
+      <c r="G94">
+        <v>0.17188700000000001</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="9"/>
+        <v>170.29023000000001</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="10"/>
+        <v>1.5408432784450121E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>90990</v>
+      </c>
+      <c r="F95">
+        <v>342.02528999999998</v>
+      </c>
+      <c r="G95">
+        <v>0.18337300000000001</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="9"/>
+        <v>342.208663</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="10"/>
+        <v>3.7589327398615232E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>44595</v>
+      </c>
+      <c r="F96">
+        <v>70.130896000000007</v>
+      </c>
+      <c r="G96">
+        <v>0.11404400000000001</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="9"/>
+        <v>70.244940000000014</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="10"/>
+        <v>1.572617916806817E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>39615</v>
+      </c>
+      <c r="F97">
+        <v>64.132509999999996</v>
+      </c>
+      <c r="G97">
+        <v>0.10830099999999999</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="9"/>
+        <v>64.240810999999994</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="10"/>
+        <v>1.6188946106272875E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:V46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="D3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>5</v>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>107.160043</v>
-      </c>
-      <c r="F4">
-        <v>1.385791</v>
+        <v>823536</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4590.3634469999997</v>
       </c>
       <c r="G4">
-        <f>SUM(E4:F4)</f>
-        <v>108.545834</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
+        <v>42.420229999999997</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H21" si="0">F4+G4</f>
+        <v>4632.7836769999994</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <f>H4/E4</f>
+        <v>5.6254780325328815E-3</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>823536</v>
+      </c>
+      <c r="R4" s="4">
+        <v>4590.3634469999997</v>
+      </c>
+      <c r="S4" s="4">
+        <v>6.2625739999999999</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T21" si="1">R4+S4</f>
+        <v>4596.626021</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
+        <f>T4/Q4</f>
+        <v>5.581572658633017E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>823452</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2629.048151</v>
+      </c>
+      <c r="G5">
+        <v>21.133194</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>2650.181345</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J23" si="2">H5/E5</f>
+        <v>3.2183798752082695E-3</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>823452</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2629.048151</v>
+      </c>
+      <c r="S5" s="4">
+        <v>3.3146599999999999</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="1"/>
+        <v>2632.362811</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
+        <f t="shared" ref="V5:V23" si="3">T5/Q5</f>
+        <v>3.1967410498729737E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>821940</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3473.733373</v>
+      </c>
+      <c r="G6">
+        <v>13.197888000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>3486.9312610000002</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2423184916173936E-3</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>821940</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3473.733373</v>
+      </c>
+      <c r="S6" s="4">
+        <v>4.1921419999999996</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="1"/>
+        <v>3477.9255149999999</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2313617964814948E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>769020</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2186.4647839999998</v>
+      </c>
+      <c r="G7">
+        <v>17.161643000000002</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2203.6264269999997</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8654995019635377E-3</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>769020</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2186.4647839999998</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2.7313130000000001</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="1"/>
+        <v>2189.196097</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8467349314712231E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>761453</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1987.742733</v>
+      </c>
+      <c r="G8">
+        <v>18.757073999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>2006.4998070000001</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6350934424055066E-3</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>761453</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1987.742733</v>
+      </c>
+      <c r="S8" s="4">
+        <v>10.032178999999999</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="1"/>
+        <v>1997.7749120000001</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
+        <f t="shared" si="3"/>
+        <v>2.623635223710459E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>753172</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2658.3283289999999</v>
+      </c>
+      <c r="G9">
+        <v>14.397024999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>2672.7253540000002</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5486254852809189E-3</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>753172</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2658.3283289999999</v>
+      </c>
+      <c r="S9" s="4">
+        <v>4.5129419999999998</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="1"/>
+        <v>2662.8412709999998</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5355022106504223E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>708540</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2522.77844</v>
+      </c>
+      <c r="G10">
+        <v>16.309982000000002</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>2539.0884220000003</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5835498659214727E-3</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>708540</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2522.77844</v>
+      </c>
+      <c r="S10" s="4">
+        <v>4.3238250000000003</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="1"/>
+        <v>2527.102265</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5666331682050415E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>248185</v>
+      </c>
+      <c r="F11" s="4">
+        <v>556.16009799999995</v>
+      </c>
+      <c r="G11">
+        <v>12.405711</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>568.56580899999994</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2908951346777605E-3</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>248185</v>
+      </c>
+      <c r="R11" s="4">
+        <v>556.16009799999995</v>
+      </c>
+      <c r="S11" s="4">
+        <v>5.7153270000000003</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
+        <v>561.87542499999995</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2639378890746821E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>243320</v>
+      </c>
+      <c r="F12" s="4">
+        <v>606.07690400000001</v>
+      </c>
+      <c r="G12">
+        <v>10.991607</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>617.06851100000006</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5360369513397997E-3</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>243320</v>
+      </c>
+      <c r="R12" s="4">
+        <v>606.07690400000001</v>
+      </c>
+      <c r="S12" s="4">
+        <v>3.7798600000000002</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="1"/>
+        <v>609.856764</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5063980108499095E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>160692</v>
+      </c>
+      <c r="F13" s="4">
+        <v>287.235771</v>
+      </c>
+      <c r="G13">
+        <v>8.9231689999999997</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>296.15893999999997</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8430223035372014E-3</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>160692</v>
+      </c>
+      <c r="R13" s="4">
+        <v>287.235771</v>
+      </c>
+      <c r="S13" s="4">
+        <v>3.10134</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="1"/>
+        <v>290.33711099999999</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
+        <f t="shared" si="3"/>
+        <v>1.8067925659024718E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>98574</v>
+      </c>
+      <c r="F14" s="4">
+        <v>179.011312</v>
+      </c>
+      <c r="G14">
+        <v>13.175324</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>192.18663599999999</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9496686347312679E-3</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>98574</v>
+      </c>
+      <c r="R14" s="4">
+        <v>179.011312</v>
+      </c>
+      <c r="S14" s="4">
+        <v>2.6139869999999998</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="1"/>
+        <v>181.62529900000001</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
+        <f t="shared" si="3"/>
+        <v>1.8425274311684623E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>22596</v>
+      </c>
+      <c r="F15" s="4">
+        <v>50.944842000000001</v>
+      </c>
+      <c r="G15">
+        <v>15.701593000000001</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>66.646434999999997</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9494793326252434E-3</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>22596</v>
+      </c>
+      <c r="R15" s="4">
+        <v>50.944842000000001</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.656779</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="1"/>
+        <v>51.601621000000002</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2836617542927951E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>2184</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.5359150000000001</v>
+      </c>
+      <c r="G16">
+        <v>27.806597</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>32.342511999999999</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4808842490842491E-2</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>2184</v>
+      </c>
+      <c r="R16" s="4">
+        <v>4.5359150000000001</v>
+      </c>
+      <c r="S16" s="4">
+        <v>3.3639000000000002E-2</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5695540000000001</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0922866300366301E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>2156</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.6290370000000003</v>
+      </c>
+      <c r="G17">
+        <v>13.972834000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>18.601871000000003</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6279550092764386E-3</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>2156</v>
+      </c>
+      <c r="R17" s="4">
+        <v>4.6290370000000003</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1.1487000000000001E-2</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6405240000000001</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1523766233766234E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1792</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5.9737720000000003</v>
+      </c>
+      <c r="G18">
+        <v>11.721428</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>17.6952</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>9.8745535714285706E-3</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>1792</v>
+      </c>
+      <c r="R18" s="4">
+        <v>5.9737720000000003</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1.6819000000000001E-2</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9905910000000002</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3429637276785715E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>560</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.3492470000000001</v>
+      </c>
+      <c r="G19">
+        <v>12.694932</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>14.044179</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>2.507889107142857E-2</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>560</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1.3492470000000001</v>
+      </c>
+      <c r="S19" s="4">
+        <v>4.9230000000000003E-3</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3541700000000001</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4181607142857143E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>98</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.28675099999999998</v>
+      </c>
+      <c r="G20">
+        <v>12.594011999999999</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>12.880763</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13143635714285715</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>98</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.28675099999999998</v>
+      </c>
+      <c r="S20" s="4">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.29003299999999999</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9595204081632651E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.113634</v>
+      </c>
+      <c r="G21">
+        <v>11.323904000000001</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>11.437538</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4084835</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>28</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.113634</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.115275</v>
+      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1169642857142854E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.8460000000000001E-2</v>
+      </c>
+      <c r="G22">
+        <v>10.499318000000001</v>
+      </c>
+      <c r="H22" s="4">
+        <f>F22+G22</f>
+        <v>10.517778</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>10.517778</v>
+      </c>
+      <c r="P22">
+        <v>7</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1.8460000000000001E-2</v>
+      </c>
+      <c r="S22" s="4">
+        <v>8.2100000000000001E-4</v>
+      </c>
+      <c r="T22" s="4">
+        <f>R22+S22</f>
+        <v>1.9281E-2</v>
+      </c>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9281E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="G23">
+        <v>13.964219999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <f>F23+G23</f>
+        <v>13.981449999999999</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>13.981449999999999</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="S23" s="4">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="T23" s="4">
+        <f>R23+S23</f>
+        <v>1.805E-2</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4">
+        <f t="shared" si="3"/>
+        <v>1.805E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>13167</v>
+      </c>
+      <c r="T27">
+        <v>2540</v>
+      </c>
+      <c r="U27">
+        <v>0.949299</v>
+      </c>
+      <c r="V27">
+        <v>42.420229999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="S28">
+        <v>13167</v>
+      </c>
+      <c r="T28">
+        <v>2540</v>
+      </c>
+      <c r="U28">
+        <v>3.6930000000000001E-3</v>
+      </c>
+      <c r="V28">
+        <v>21.133194</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>13167</v>
+      </c>
+      <c r="T29">
+        <v>2540</v>
+      </c>
+      <c r="U29">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V29">
+        <v>13.197888000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>13167</v>
+      </c>
+      <c r="T30">
+        <v>2540</v>
+      </c>
+      <c r="U30">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V30">
+        <v>17.161643000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>13167</v>
+      </c>
+      <c r="T31">
+        <v>2540</v>
+      </c>
+      <c r="U31">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="V31">
+        <v>18.757073999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>13167</v>
+      </c>
+      <c r="T32">
+        <v>2540</v>
+      </c>
+      <c r="U32">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V32">
+        <v>14.397024999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+      <c r="S33">
+        <v>13167</v>
+      </c>
+      <c r="T33">
+        <v>2540</v>
+      </c>
+      <c r="U33">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="V33">
+        <v>16.309982000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>13167</v>
+      </c>
+      <c r="T34">
+        <v>2540</v>
+      </c>
+      <c r="U34">
+        <v>2.0509999999999999E-3</v>
+      </c>
+      <c r="V34">
+        <v>12.405711</v>
+      </c>
+    </row>
+    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>13167</v>
+      </c>
+      <c r="T35">
+        <v>2540</v>
+      </c>
+      <c r="U35">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="V35">
+        <v>10.991607</v>
+      </c>
+    </row>
+    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>13167</v>
+      </c>
+      <c r="T36">
+        <v>2540</v>
+      </c>
+      <c r="U36">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V36">
+        <v>8.9231689999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37">
+        <v>7</v>
+      </c>
+      <c r="S37">
+        <v>13167</v>
+      </c>
+      <c r="T37">
+        <v>2540</v>
+      </c>
+      <c r="U37">
+        <v>4.1029999999999999E-3</v>
+      </c>
+      <c r="V37">
+        <v>13.175324</v>
+      </c>
+    </row>
+    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>13167</v>
+      </c>
+      <c r="T38">
+        <v>2540</v>
+      </c>
+      <c r="U38">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V38">
+        <v>15.701593000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>13167</v>
+      </c>
+      <c r="T39">
+        <v>2540</v>
+      </c>
+      <c r="U39">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="V39">
+        <v>27.806597</v>
+      </c>
+    </row>
+    <row r="40" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40">
+        <v>7</v>
+      </c>
+      <c r="S40">
+        <v>13167</v>
+      </c>
+      <c r="T40">
+        <v>2540</v>
+      </c>
+      <c r="U40">
+        <v>2.4620000000000002E-3</v>
+      </c>
+      <c r="V40">
+        <v>13.972834000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>13167</v>
+      </c>
+      <c r="T41">
+        <v>2540</v>
+      </c>
+      <c r="U41">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="V41">
+        <v>11.721428</v>
+      </c>
+    </row>
+    <row r="42" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>11</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>13167</v>
+      </c>
+      <c r="T42">
+        <v>2540</v>
+      </c>
+      <c r="U42">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V42">
+        <v>12.694932</v>
+      </c>
+    </row>
+    <row r="43" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43">
+        <v>7</v>
+      </c>
+      <c r="S43">
+        <v>13167</v>
+      </c>
+      <c r="T43">
+        <v>2540</v>
+      </c>
+      <c r="U43">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V43">
+        <v>12.594011999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44">
+        <v>7</v>
+      </c>
+      <c r="S44">
+        <v>13167</v>
+      </c>
+      <c r="T44">
+        <v>2540</v>
+      </c>
+      <c r="U44">
+        <v>2.0509999999999999E-3</v>
+      </c>
+      <c r="V44">
+        <v>11.323904000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>13167</v>
+      </c>
+      <c r="T45">
+        <v>2540</v>
+      </c>
+      <c r="U45">
+        <v>1.23E-3</v>
+      </c>
+      <c r="V45">
+        <v>10.499318000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>11</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>13167</v>
+      </c>
+      <c r="T46">
+        <v>2540</v>
+      </c>
+      <c r="U46">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="V46">
+        <v>13.964219999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:V21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>123.205354</v>
-      </c>
-      <c r="F5">
-        <v>0.57556600000000002</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G20" si="0">SUM(E5:F5)</f>
-        <v>123.78091999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>16910</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4271</v>
+      </c>
+      <c r="F5" s="3">
+        <v>46.785201999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5/D5</f>
+        <v>2.7667180366646952E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>90.990020000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.58336100000000002</v>
-      </c>
-      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8636</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1378</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16.06794</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G19" si="0">F6/D6</f>
+        <v>1.8605766558591941E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>19236</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5216</v>
+      </c>
+      <c r="F7" s="3">
+        <v>21.502412</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>91.573380999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>49.688279000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.443469</v>
-      </c>
-      <c r="G7">
+        <v>1.1178213765855687E-3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>16910</v>
+      </c>
+      <c r="T7">
+        <v>4271</v>
+      </c>
+      <c r="U7">
+        <v>0.73064099999999998</v>
+      </c>
+      <c r="V7">
+        <v>46.785201999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>28285</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8481</v>
+      </c>
+      <c r="F8" s="3">
+        <v>36.645256000000003</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>50.131748000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>52.478732000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.55874699999999999</v>
-      </c>
-      <c r="G8">
+        <v>1.2955720700017679E-3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>8636</v>
+      </c>
+      <c r="T8">
+        <v>1378</v>
+      </c>
+      <c r="U8">
+        <v>2.8709999999999999E-3</v>
+      </c>
+      <c r="V8">
+        <v>16.06794</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20441</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5457</v>
+      </c>
+      <c r="F9" s="3">
+        <v>29.525921</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>53.037478999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>23.233127</v>
-      </c>
-      <c r="F9">
-        <v>0.48285299999999998</v>
-      </c>
-      <c r="G9">
+        <v>1.4444460153612837E-3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>19236</v>
+      </c>
+      <c r="T9">
+        <v>5216</v>
+      </c>
+      <c r="U9">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V9">
+        <v>21.502412</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>11570</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2140</v>
+      </c>
+      <c r="F10" s="3">
+        <v>17.315895000000001</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>23.715979999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>31.074866</v>
-      </c>
-      <c r="F10">
-        <v>0.18706900000000001</v>
-      </c>
-      <c r="G10">
+        <v>1.4966201382886778E-3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>28285</v>
+      </c>
+      <c r="T10">
+        <v>8481</v>
+      </c>
+      <c r="U10">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="V10">
+        <v>36.645256000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>24091</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6119</v>
+      </c>
+      <c r="F11" s="3">
+        <v>22.815186000000001</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>31.261935000000001</v>
-      </c>
-      <c r="U10" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10">
-        <v>5</v>
-      </c>
-      <c r="W10">
-        <v>107.160043</v>
-      </c>
-      <c r="X10">
-        <v>1.385791</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>51.981110999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.19281300000000001</v>
-      </c>
-      <c r="G11">
+        <v>9.4704188286081942E-4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>20441</v>
+      </c>
+      <c r="T11">
+        <v>5457</v>
+      </c>
+      <c r="U11">
+        <v>2.872E-3</v>
+      </c>
+      <c r="V11">
+        <v>29.525921</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>23305</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6062</v>
+      </c>
+      <c r="F12" s="3">
+        <v>21.058530999999999</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>52.173924</v>
-      </c>
-      <c r="U11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11">
-        <v>123.205354</v>
-      </c>
-      <c r="X11">
-        <v>0.57556600000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>25.187100000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.35690899999999998</v>
-      </c>
-      <c r="G12">
+        <v>9.0360570692984336E-4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>11570</v>
+      </c>
+      <c r="T12">
+        <v>2140</v>
+      </c>
+      <c r="U12">
+        <v>4.9230000000000003E-3</v>
+      </c>
+      <c r="V12">
+        <v>17.315895000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6">
+        <v>18482</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3875</v>
+      </c>
+      <c r="F13" s="3">
+        <v>22.339715999999999</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>25.544009000000003</v>
-      </c>
-      <c r="U12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12">
-        <v>90.990020000000001</v>
-      </c>
-      <c r="X12">
-        <v>0.58336100000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13">
+        <v>1.2087282761605886E-3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>24091</v>
+      </c>
+      <c r="T13">
+        <v>6119</v>
+      </c>
+      <c r="U13">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V13">
+        <v>22.815186000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>23580</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>27.869364000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1819068702290077E-3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>23305</v>
+      </c>
+      <c r="T14">
+        <v>6062</v>
+      </c>
+      <c r="U14">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="V14">
+        <v>21.058530999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6">
+        <v>16028</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3326</v>
+      </c>
+      <c r="F15" s="3">
+        <v>16.850680000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0513276765660095E-3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>18482</v>
+      </c>
+      <c r="T15">
+        <v>3875</v>
+      </c>
+      <c r="U15">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V15">
+        <v>22.339715999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
+        <v>19469</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4588</v>
+      </c>
+      <c r="F16" s="3">
+        <v>19.943083000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0243506600236274E-3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>23580</v>
+      </c>
+      <c r="T16">
+        <v>5500</v>
+      </c>
+      <c r="U16">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="V16">
+        <v>27.869364000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11880</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2853</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9.1003930000000004</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6602634680134681E-4</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>16028</v>
+      </c>
+      <c r="T17">
+        <v>3326</v>
+      </c>
+      <c r="U17">
+        <v>2.4620000000000002E-3</v>
+      </c>
+      <c r="V17">
+        <v>16.850680000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5128</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1283</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6.9560589999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3564857644305772E-3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>19469</v>
+      </c>
+      <c r="T18">
+        <v>4588</v>
+      </c>
+      <c r="U18">
+        <v>2.4620000000000002E-3</v>
+      </c>
+      <c r="V18">
+        <v>19.943083000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6">
+        <v>915</v>
+      </c>
+      <c r="E19" s="6">
+        <v>257</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.4157439999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5472612021857923E-3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>11880</v>
+      </c>
+      <c r="T19">
+        <v>2853</v>
+      </c>
+      <c r="U19">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="V19">
+        <v>9.1003930000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>5128</v>
+      </c>
+      <c r="T20">
+        <v>1283</v>
+      </c>
+      <c r="U20">
+        <v>2.0509999999999999E-3</v>
+      </c>
+      <c r="V20">
+        <v>6.9560589999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>915</v>
+      </c>
+      <c r="T21">
+        <v>257</v>
+      </c>
+      <c r="U21">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="V21">
+        <v>1.4157439999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N15:T23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="15" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>31.224602999999998</v>
-      </c>
-      <c r="F13">
-        <v>0.36429400000000001</v>
-      </c>
-      <c r="G13">
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>823536</v>
+      </c>
+      <c r="Q15">
+        <v>5020.449732</v>
+      </c>
+      <c r="R15">
+        <v>55.799854000000003</v>
+      </c>
+      <c r="T15">
+        <f>R15/R20</f>
+        <v>8.9999996774185238</v>
+      </c>
+    </row>
+    <row r="16" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>823494</v>
+      </c>
+      <c r="Q16">
+        <v>2630.6937969999999</v>
+      </c>
+      <c r="R16">
+        <v>41.095968999999997</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:T18" si="0">R16/R21</f>
+        <v>12.32316147983601</v>
+      </c>
+    </row>
+    <row r="17" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <v>822738</v>
+      </c>
+      <c r="Q17">
+        <v>2947.450081</v>
+      </c>
+      <c r="R17">
+        <v>41.298217999999999</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="0"/>
-        <v>31.588896999999999</v>
-      </c>
-      <c r="U13" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="W13">
-        <v>49.688279000000001</v>
-      </c>
-      <c r="X13">
-        <v>0.443469</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>32.224359</v>
-      </c>
-      <c r="F14">
-        <v>0.652281</v>
-      </c>
-      <c r="G14">
+        <v>14.698203325140421</v>
+      </c>
+    </row>
+    <row r="18" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>822696</v>
+      </c>
+      <c r="Q18">
+        <v>1767.2349750000001</v>
+      </c>
+      <c r="R18">
+        <v>41.002844000000003</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="0"/>
-        <v>32.876640000000002</v>
-      </c>
-      <c r="U14" t="s">
-        <v>6</v>
-      </c>
-      <c r="V14">
-        <v>5</v>
-      </c>
-      <c r="W14">
-        <v>52.478732000000001</v>
-      </c>
-      <c r="X14">
-        <v>0.55874699999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>34.804358999999998</v>
-      </c>
-      <c r="F15">
-        <v>9.9687999999999999E-2</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>34.904046999999998</v>
-      </c>
-      <c r="U15" t="s">
-        <v>6</v>
-      </c>
-      <c r="V15">
-        <v>5</v>
-      </c>
-      <c r="W15">
-        <v>23.233127</v>
-      </c>
-      <c r="X15">
-        <v>0.48285299999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>20.216631</v>
-      </c>
-      <c r="F16">
-        <v>0.15712200000000001</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>20.373753000000001</v>
-      </c>
-      <c r="U16" t="s">
-        <v>6</v>
-      </c>
-      <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <v>31.074866</v>
-      </c>
-      <c r="X16">
-        <v>0.18706900000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>19.778494999999999</v>
-      </c>
-      <c r="F17">
-        <v>8.4919999999999995E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>19.863415</v>
-      </c>
-      <c r="U17" t="s">
-        <v>6</v>
-      </c>
-      <c r="V17">
-        <v>5</v>
-      </c>
-      <c r="W17">
-        <v>51.981110999999999</v>
-      </c>
-      <c r="X17">
-        <v>0.19281300000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>16.276274999999998</v>
-      </c>
-      <c r="F18">
-        <v>5.4561999999999999E-2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>16.330836999999999</v>
-      </c>
-      <c r="U18" t="s">
-        <v>6</v>
-      </c>
-      <c r="V18">
-        <v>5</v>
-      </c>
-      <c r="W18">
-        <v>25.187100000000001</v>
-      </c>
-      <c r="X18">
-        <v>0.35690899999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>14.242716</v>
-      </c>
-      <c r="F19">
-        <v>3.5691000000000001E-2</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>14.278407</v>
-      </c>
-      <c r="U19" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>31.224602999999998</v>
-      </c>
-      <c r="X19">
-        <v>0.36429400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>13.966623999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.42336800000000002</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>14.389991999999999</v>
-      </c>
-      <c r="U20" t="s">
-        <v>6</v>
-      </c>
-      <c r="V20">
-        <v>5</v>
-      </c>
-      <c r="W20">
-        <v>32.224359</v>
-      </c>
-      <c r="X20">
-        <v>0.652281</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="U21" t="s">
-        <v>6</v>
-      </c>
-      <c r="V21">
-        <v>5</v>
-      </c>
-      <c r="W21">
-        <v>34.804358999999998</v>
-      </c>
-      <c r="X21">
-        <v>9.9687999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f>AVERAGE(B4:B20)</f>
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:G22" si="1">AVERAGE(C4:C20)</f>
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>43.396040823529404</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0.3905002352941177</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>43.786541058823524</v>
-      </c>
-      <c r="U22" t="s">
-        <v>6</v>
-      </c>
-      <c r="V22">
-        <v>5</v>
-      </c>
-      <c r="W22">
-        <v>20.216631</v>
-      </c>
-      <c r="X22">
-        <v>0.15712200000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="U23" t="s">
-        <v>6</v>
-      </c>
-      <c r="V23">
-        <v>5</v>
-      </c>
-      <c r="W23">
-        <v>19.778494999999999</v>
-      </c>
-      <c r="X23">
-        <v>8.4919999999999995E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="U24" t="s">
-        <v>6</v>
-      </c>
-      <c r="V24">
-        <v>5</v>
-      </c>
-      <c r="W24">
-        <v>16.276274999999998</v>
-      </c>
-      <c r="X24">
-        <v>5.4561999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="U25" t="s">
-        <v>6</v>
-      </c>
-      <c r="V25">
-        <v>5</v>
-      </c>
-      <c r="W25">
-        <v>14.242716</v>
-      </c>
-      <c r="X25">
-        <v>3.5691000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="U26" t="s">
-        <v>6</v>
-      </c>
-      <c r="V26">
-        <v>5</v>
-      </c>
-      <c r="W26">
-        <v>13.966623999999999</v>
-      </c>
-      <c r="X26">
-        <v>0.42336800000000002</v>
+        <v>14.924295030663659</v>
+      </c>
+    </row>
+    <row r="20" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <v>823536</v>
+      </c>
+      <c r="Q20">
+        <v>4475.4722599999996</v>
+      </c>
+      <c r="R20">
+        <v>6.1999839999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>823494</v>
+      </c>
+      <c r="Q21">
+        <v>2344.0271050000001</v>
+      </c>
+      <c r="R21">
+        <v>3.3348559999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="P22">
+        <v>822738</v>
+      </c>
+      <c r="Q22">
+        <v>2713.3681790000001</v>
+      </c>
+      <c r="R22">
+        <v>2.8097460000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>822696</v>
+      </c>
+      <c r="Q23">
+        <v>2057.7037869999999</v>
+      </c>
+      <c r="R23">
+        <v>2.7473890000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Praca dyplomowa, wyniki.xlsx
+++ b/Praca dyplomowa, wyniki.xlsx
@@ -17,7 +17,8 @@
     <sheet name="CF mm" sheetId="4" r:id="rId3"/>
     <sheet name="Fake CF ab" sheetId="6" r:id="rId4"/>
     <sheet name="CF real AB" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="TTT real AB" sheetId="8" r:id="rId6"/>
+    <sheet name="TTT CvC" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="17">
   <si>
     <t>Iteration</t>
   </si>
@@ -75,15 +76,22 @@
   <si>
     <t>Time/Checks</t>
   </si>
+  <si>
+    <t>Player 1</t>
+  </si>
+  <si>
+    <t>Player 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -115,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -123,6 +131,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,36 +1090,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'TTT mm'!$E$5:$E$13</c:f>
+              <c:f>'TTT mm'!$J$29:$J$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2179.2314190000002</c:v>
+                  <c:v>1245.0068430000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.934687999999994</c:v>
+                  <c:v>43.328568999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.41568</c:v>
+                  <c:v>3.368706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37105500000000002</c:v>
+                  <c:v>0.43118699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10302699999999999</c:v>
+                  <c:v>0.103948</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4211E-2</c:v>
+                  <c:v>4.1842333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8948E-2</c:v>
+                  <c:v>1.8553E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1447000000000001E-2</c:v>
+                  <c:v>1.3289666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0264000000000001E-2</c:v>
+                  <c:v>9.3423333333333327E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,36 +1171,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'TTT mm'!$F$5:$F$13</c:f>
+              <c:f>'TTT mm'!$K$29:$K$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>57.114446999999998</c:v>
+                  <c:v>42.622642999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5013380000000001</c:v>
+                  <c:v>4.3709490000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58697699999999997</c:v>
+                  <c:v>0.442108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.921E-2</c:v>
+                  <c:v>3.6184000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1050000000000002E-3</c:v>
+                  <c:v>6.8420000000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5530000000000002E-3</c:v>
+                  <c:v>3.2896666666666669E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9729999999999999E-3</c:v>
+                  <c:v>2.2366666666666668E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5790000000000001E-3</c:v>
+                  <c:v>1.7103333333333335E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1839999999999999E-3</c:v>
+                  <c:v>1.4473333333333335E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,36 +1252,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'TTT mm'!$G$5:$G$13</c:f>
+              <c:f>'TTT mm'!$L$29:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2236.3458660000001</c:v>
+                  <c:v>1287.629486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.436025999999998</c:v>
+                  <c:v>47.699517999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0026570000000001</c:v>
+                  <c:v>3.8108140000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40026500000000004</c:v>
+                  <c:v>0.46737099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11013199999999999</c:v>
+                  <c:v>0.11079</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7764000000000001E-2</c:v>
+                  <c:v>4.5132000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0920999999999999E-2</c:v>
+                  <c:v>2.0789666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3026000000000001E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1448E-2</c:v>
+                  <c:v>1.0789666666666668E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,7 +1392,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3190,6 +3201,404 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to check each move</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CF real AB'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time/Checks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CF real AB'!$D$5:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16910</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11570</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CF real AB'!$G$5:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.7667180366646952E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8605766558591941E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1178213765855687E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2955720700017679E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4444460153612837E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4966201382886778E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4704188286081942E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0360570692984336E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2087282761605886E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1819068702290077E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0513276765660095E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0243506600236274E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6602634680134681E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3564857644305772E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5472612021857923E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15CF-4BC4-B717-A18416B42687}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="216674872"/>
+        <c:axId val="216674216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="216674872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216674216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216674216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216674872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3430,6 +3839,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5946,6 +6395,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6530,15 +7482,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6675,6 +7627,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B6CC61-54B9-4096-A02A-BF057CF78BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6982,7 +7975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
@@ -7959,12 +8952,16 @@
   <dimension ref="B2:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
@@ -8211,7 +9208,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R14" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -8231,14 +9228,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>255168</v>
       </c>
       <c r="E19">
@@ -8255,14 +9252,14 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>27732</v>
       </c>
       <c r="E20">
@@ -8279,14 +9276,14 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>3468</v>
       </c>
       <c r="E21">
@@ -8303,14 +9300,14 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>457</v>
       </c>
       <c r="E22">
@@ -8327,14 +9324,14 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>94</v>
       </c>
       <c r="E23">
@@ -8351,14 +9348,14 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>21</v>
       </c>
       <c r="E24">
@@ -8375,14 +9372,14 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>6</v>
       </c>
       <c r="E25">
@@ -8399,14 +9396,14 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>8</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="E26">
@@ -8423,14 +9420,14 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>9</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>1</v>
       </c>
       <c r="E27">
@@ -8447,7 +9444,61 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="1">
+        <f t="shared" ref="J29:K36" si="2">(E5+E19+E33)/3</f>
+        <v>1245.0068430000001</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>42.622642999999997</v>
+      </c>
+      <c r="L29" s="1">
+        <f>(G5+G19+G33)/3</f>
+        <v>1287.629486</v>
+      </c>
+      <c r="M29" s="1">
+        <f>L29/D19</f>
+        <v>5.0462028389139709E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>43.328568999999995</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3709490000000004</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" ref="L30:L36" si="3">(G6+G20+G34)/3</f>
+        <v>47.699517999999991</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" ref="M30:M36" si="4">L30/D20</f>
+        <v>1.7200172364055962E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>3.368706</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.442108</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8108140000000001</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0988506343713956E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -8466,8 +9517,24 @@
       <c r="G32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43118699999999999</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6184000000000001E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46737099999999998</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0226936542669584E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
@@ -8489,9 +9556,24 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.103948</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8420000000000009E-3</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11079</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1786170212765958E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
@@ -8508,14 +9590,29 @@
         <v>4.5762140000000002</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ref="G34:G41" si="2">E34+F34</f>
+        <f t="shared" ref="G34:G41" si="5">E34+F34</f>
         <v>32.738894999999999</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1842333333333336E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2896666666666669E-3</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5132000000000005E-2</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1491428571428573E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3</v>
       </c>
@@ -8532,14 +9629,29 @@
         <v>0.375002</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.6296279999999999</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8553E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2366666666666668E-3</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0789666666666668E-2</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4649444444444445E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>4</v>
       </c>
@@ -8556,14 +9668,29 @@
         <v>4.3421000000000001E-2</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.46894999999999998</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3289666666666667E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7103333333333335E-3</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>5</v>
       </c>
@@ -8580,14 +9707,29 @@
         <v>6.3160000000000004E-3</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.108158</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="1">
+        <f t="shared" ref="J37:K37" si="6">(E13+E27+E41)/3</f>
+        <v>9.3423333333333327E-3</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4473333333333335E-3</v>
+      </c>
+      <c r="L37" s="1">
+        <f>(G13+G27+G41)/3</f>
+        <v>1.0789666666666668E-2</v>
+      </c>
+      <c r="M37" s="1">
+        <f>L37/D27</f>
+        <v>1.0789666666666668E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>6</v>
       </c>
@@ -8604,14 +9746,15 @@
         <v>3.5530000000000002E-3</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.2106E-2</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>7</v>
       </c>
@@ -8628,14 +9771,14 @@
         <v>1.9740000000000001E-3</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.9737000000000001E-2</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>8</v>
       </c>
@@ -8652,14 +9795,14 @@
         <v>1.5790000000000001E-3</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3027E-2</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>9</v>
       </c>
@@ -8676,7 +9819,7 @@
         <v>1.9740000000000001E-3</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0658000000000001E-2</v>
       </c>
       <c r="H41" s="1"/>
@@ -8694,8 +9837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12335,18 +13478,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:V21"/>
+  <dimension ref="C4:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -12363,11 +13509,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>16910</v>
       </c>
       <c r="E5" s="6">
@@ -12381,11 +13527,11 @@
         <v>2.7667180366646952E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>8636</v>
       </c>
       <c r="E6" s="6">
@@ -12399,11 +13545,11 @@
         <v>1.8605766558591941E-3</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>19236</v>
       </c>
       <c r="E7" s="6">
@@ -12416,30 +13562,12 @@
         <f t="shared" si="0"/>
         <v>1.1178213765855687E-3</v>
       </c>
-      <c r="Q7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7">
-        <v>7</v>
-      </c>
-      <c r="S7">
-        <v>16910</v>
-      </c>
-      <c r="T7">
-        <v>4271</v>
-      </c>
-      <c r="U7">
-        <v>0.73064099999999998</v>
-      </c>
-      <c r="V7">
-        <v>46.785201999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>28285</v>
       </c>
       <c r="E8" s="6">
@@ -12452,30 +13580,12 @@
         <f t="shared" si="0"/>
         <v>1.2955720700017679E-3</v>
       </c>
-      <c r="Q8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8">
-        <v>7</v>
-      </c>
-      <c r="S8">
-        <v>8636</v>
-      </c>
-      <c r="T8">
-        <v>1378</v>
-      </c>
-      <c r="U8">
-        <v>2.8709999999999999E-3</v>
-      </c>
-      <c r="V8">
-        <v>16.06794</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>20441</v>
       </c>
       <c r="E9" s="6">
@@ -12488,30 +13598,12 @@
         <f t="shared" si="0"/>
         <v>1.4444460153612837E-3</v>
       </c>
-      <c r="Q9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>19236</v>
-      </c>
-      <c r="T9">
-        <v>5216</v>
-      </c>
-      <c r="U9">
-        <v>1.6410000000000001E-3</v>
-      </c>
-      <c r="V9">
-        <v>21.502412</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>11570</v>
       </c>
       <c r="E10" s="6">
@@ -12524,30 +13616,12 @@
         <f t="shared" si="0"/>
         <v>1.4966201382886778E-3</v>
       </c>
-      <c r="Q10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>28285</v>
-      </c>
-      <c r="T10">
-        <v>8481</v>
-      </c>
-      <c r="U10">
-        <v>3.2820000000000002E-3</v>
-      </c>
-      <c r="V10">
-        <v>36.645256000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>24091</v>
       </c>
       <c r="E11" s="6">
@@ -12560,30 +13634,12 @@
         <f t="shared" si="0"/>
         <v>9.4704188286081942E-4</v>
       </c>
-      <c r="Q11" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11">
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>20441</v>
-      </c>
-      <c r="T11">
-        <v>5457</v>
-      </c>
-      <c r="U11">
-        <v>2.872E-3</v>
-      </c>
-      <c r="V11">
-        <v>29.525921</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>23305</v>
       </c>
       <c r="E12" s="6">
@@ -12596,30 +13652,12 @@
         <f t="shared" si="0"/>
         <v>9.0360570692984336E-4</v>
       </c>
-      <c r="Q12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>7</v>
-      </c>
-      <c r="S12">
-        <v>11570</v>
-      </c>
-      <c r="T12">
-        <v>2140</v>
-      </c>
-      <c r="U12">
-        <v>4.9230000000000003E-3</v>
-      </c>
-      <c r="V12">
-        <v>17.315895000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>18482</v>
       </c>
       <c r="E13" s="6">
@@ -12632,30 +13670,12 @@
         <f t="shared" si="0"/>
         <v>1.2087282761605886E-3</v>
       </c>
-      <c r="Q13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R13">
-        <v>7</v>
-      </c>
-      <c r="S13">
-        <v>24091</v>
-      </c>
-      <c r="T13">
-        <v>6119</v>
-      </c>
-      <c r="U13">
-        <v>1.6410000000000001E-3</v>
-      </c>
-      <c r="V13">
-        <v>22.815186000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>23580</v>
       </c>
       <c r="E14" s="6">
@@ -12668,30 +13688,12 @@
         <f t="shared" si="0"/>
         <v>1.1819068702290077E-3</v>
       </c>
-      <c r="Q14" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14">
-        <v>7</v>
-      </c>
-      <c r="S14">
-        <v>23305</v>
-      </c>
-      <c r="T14">
-        <v>6062</v>
-      </c>
-      <c r="U14">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="V14">
-        <v>21.058530999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>7</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>16028</v>
       </c>
       <c r="E15" s="6">
@@ -12704,30 +13706,12 @@
         <f t="shared" si="0"/>
         <v>1.0513276765660095E-3</v>
       </c>
-      <c r="Q15" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15">
-        <v>7</v>
-      </c>
-      <c r="S15">
-        <v>18482</v>
-      </c>
-      <c r="T15">
-        <v>3875</v>
-      </c>
-      <c r="U15">
-        <v>1.6410000000000001E-3</v>
-      </c>
-      <c r="V15">
-        <v>22.339715999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>19469</v>
       </c>
       <c r="E16" s="6">
@@ -12740,30 +13724,12 @@
         <f t="shared" si="0"/>
         <v>1.0243506600236274E-3</v>
       </c>
-      <c r="Q16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16">
-        <v>7</v>
-      </c>
-      <c r="S16">
-        <v>23580</v>
-      </c>
-      <c r="T16">
-        <v>5500</v>
-      </c>
-      <c r="U16">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="V16">
-        <v>27.869364000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>7</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>11880</v>
       </c>
       <c r="E17" s="6">
@@ -12776,30 +13742,12 @@
         <f t="shared" si="0"/>
         <v>7.6602634680134681E-4</v>
       </c>
-      <c r="Q17" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17">
-        <v>7</v>
-      </c>
-      <c r="S17">
-        <v>16028</v>
-      </c>
-      <c r="T17">
-        <v>3326</v>
-      </c>
-      <c r="U17">
-        <v>2.4620000000000002E-3</v>
-      </c>
-      <c r="V17">
-        <v>16.850680000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>7</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>5128</v>
       </c>
       <c r="E18" s="6">
@@ -12812,30 +13760,12 @@
         <f t="shared" si="0"/>
         <v>1.3564857644305772E-3</v>
       </c>
-      <c r="Q18" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18">
-        <v>7</v>
-      </c>
-      <c r="S18">
-        <v>19469</v>
-      </c>
-      <c r="T18">
-        <v>4588</v>
-      </c>
-      <c r="U18">
-        <v>2.4620000000000002E-3</v>
-      </c>
-      <c r="V18">
-        <v>19.943083000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>7</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>915</v>
       </c>
       <c r="E19" s="6">
@@ -12848,234 +13778,967 @@
         <f t="shared" si="0"/>
         <v>1.5472612021857923E-3</v>
       </c>
-      <c r="Q19" t="s">
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>982</v>
+      </c>
+      <c r="E24" s="6">
+        <v>149</v>
+      </c>
+      <c r="F24" s="9">
+        <v>6.9524780000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6">
+        <v>6984</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2210</v>
+      </c>
+      <c r="F25" s="9">
+        <v>11.098038000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6">
+        <v>13167</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2540</v>
+      </c>
+      <c r="F26" s="9">
+        <v>14.237258000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6">
+        <v>13167</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2540</v>
+      </c>
+      <c r="F27" s="9">
+        <v>22.371251999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6">
+        <v>123509</v>
+      </c>
+      <c r="E28" s="6">
+        <v>37496</v>
+      </c>
+      <c r="F28" s="9">
+        <v>147.10848799999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6">
+        <v>167564</v>
+      </c>
+      <c r="E29" s="6">
+        <v>39037</v>
+      </c>
+      <c r="F29" s="9">
+        <v>137.896771</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6">
+        <v>952511</v>
+      </c>
+      <c r="E30" s="6">
+        <v>272730</v>
+      </c>
+      <c r="F30" s="9">
+        <v>887.15586299999995</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>11</v>
       </c>
-      <c r="R19">
+      <c r="D31" s="6">
+        <v>1849059</v>
+      </c>
+      <c r="E31" s="6">
+        <v>522285</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1926.2385810000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6">
+        <v>16501759</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4949789</v>
+      </c>
+      <c r="F32" s="9">
+        <v>13807.394973</v>
+      </c>
+      <c r="R32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>982</v>
+      </c>
+      <c r="U32">
+        <v>149</v>
+      </c>
+      <c r="V32">
+        <v>1.133926</v>
+      </c>
+      <c r="W32">
+        <v>6.9524780000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6">
+        <v>31786281</v>
+      </c>
+      <c r="E33" s="6">
+        <v>10805507</v>
+      </c>
+      <c r="F33" s="9">
+        <v>27591.887010999999</v>
+      </c>
+      <c r="R33" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>6984</v>
+      </c>
+      <c r="U33">
+        <v>2210</v>
+      </c>
+      <c r="V33">
+        <v>2.0509999999999999E-3</v>
+      </c>
+      <c r="W33">
+        <v>11.098038000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6">
+        <v>335138373</v>
+      </c>
+      <c r="E34" s="6">
+        <v>101386483</v>
+      </c>
+      <c r="F34" s="9">
+        <v>285578.331175</v>
+      </c>
+      <c r="R34" t="s">
+        <v>11</v>
+      </c>
+      <c r="S34">
         <v>7</v>
       </c>
-      <c r="S19">
-        <v>11880</v>
-      </c>
-      <c r="T19">
-        <v>2853</v>
-      </c>
-      <c r="U19">
+      <c r="T34">
+        <v>13167</v>
+      </c>
+      <c r="U34">
+        <v>2540</v>
+      </c>
+      <c r="V34">
         <v>1.2310000000000001E-3</v>
       </c>
-      <c r="V19">
-        <v>9.1003930000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="Q20" t="s">
+      <c r="W34">
+        <v>14.237258000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
         <v>11</v>
       </c>
-      <c r="R20">
+      <c r="S35">
         <v>7</v>
       </c>
-      <c r="S20">
-        <v>5128</v>
-      </c>
-      <c r="T20">
-        <v>1283</v>
-      </c>
-      <c r="U20">
-        <v>2.0509999999999999E-3</v>
-      </c>
-      <c r="V20">
-        <v>6.9560589999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="Q21" t="s">
+      <c r="T35">
+        <v>13167</v>
+      </c>
+      <c r="U35">
+        <v>2540</v>
+      </c>
+      <c r="V35">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="W35">
+        <v>22.371251999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
         <v>11</v>
       </c>
-      <c r="R21">
-        <v>7</v>
-      </c>
-      <c r="S21">
-        <v>915</v>
-      </c>
-      <c r="T21">
-        <v>257</v>
-      </c>
-      <c r="U21">
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>123509</v>
+      </c>
+      <c r="U36">
+        <v>37496</v>
+      </c>
+      <c r="V36">
         <v>1.6410000000000001E-3</v>
       </c>
-      <c r="V21">
-        <v>1.4157439999999999</v>
+      <c r="W36">
+        <v>147.10848799999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37">
+        <v>9</v>
+      </c>
+      <c r="T37">
+        <v>167564</v>
+      </c>
+      <c r="U37">
+        <v>39037</v>
+      </c>
+      <c r="V37">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="W37">
+        <v>137.896771</v>
+      </c>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>952511</v>
+      </c>
+      <c r="U38">
+        <v>272730</v>
+      </c>
+      <c r="V38">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="W38">
+        <v>887.15586299999995</v>
+      </c>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <v>1849059</v>
+      </c>
+      <c r="U39">
+        <v>522285</v>
+      </c>
+      <c r="V39">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="W39">
+        <v>1926.2385810000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>11</v>
+      </c>
+      <c r="S40">
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <v>16501759</v>
+      </c>
+      <c r="U40">
+        <v>4949789</v>
+      </c>
+      <c r="V40">
+        <v>1.23E-3</v>
+      </c>
+      <c r="W40">
+        <v>13807.394973</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41">
+        <v>13</v>
+      </c>
+      <c r="T41">
+        <v>31786281</v>
+      </c>
+      <c r="U41">
+        <v>10805507</v>
+      </c>
+      <c r="V41">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="W41">
+        <v>27591.887010999999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>11</v>
+      </c>
+      <c r="S42">
+        <v>14</v>
+      </c>
+      <c r="T42">
+        <v>335138373</v>
+      </c>
+      <c r="U42">
+        <v>101386483</v>
+      </c>
+      <c r="V42">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="W42">
+        <v>285578.331175</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="N15:T23"/>
+  <dimension ref="C4:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16:T18"/>
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>13373</v>
+      </c>
+      <c r="E5">
+        <v>5750</v>
+      </c>
+      <c r="F5">
+        <v>7.7768569999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5/D5</f>
+        <v>5.8153421072309878E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>965</v>
+      </c>
+      <c r="E6">
+        <v>482</v>
+      </c>
+      <c r="F6">
+        <v>0.72119599999999995</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G13" si="0">F6/D6</f>
+        <v>7.4735336787564767E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>2.6665000000000001E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0171052631578948E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>6.2766000000000002E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3688000000000002E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>4.9228000000000001E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6918750000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2.0923000000000001E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3692E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2.4614E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1023333333333337E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>5.3330000000000001E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0666E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6.1539999999999997E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0769999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="15" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
-      <c r="P15">
-        <v>823536</v>
-      </c>
-      <c r="Q15">
-        <v>5020.449732</v>
-      </c>
-      <c r="R15">
-        <v>55.799854000000003</v>
-      </c>
-      <c r="T15">
-        <f>R15/R20</f>
-        <v>8.9999996774185238</v>
-      </c>
-    </row>
-    <row r="16" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16">
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="P16">
-        <v>823494</v>
-      </c>
-      <c r="Q16">
-        <v>2630.6937969999999</v>
-      </c>
-      <c r="R16">
-        <v>41.095968999999997</v>
-      </c>
-      <c r="T16">
-        <f t="shared" ref="T16:T18" si="0">R16/R21</f>
-        <v>12.32316147983601</v>
-      </c>
-    </row>
-    <row r="17" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17">
-        <v>7</v>
-      </c>
-      <c r="P17">
-        <v>822738</v>
-      </c>
-      <c r="Q17">
-        <v>2947.450081</v>
-      </c>
-      <c r="R17">
-        <v>41.298217999999999</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="0"/>
-        <v>14.698203325140421</v>
-      </c>
-    </row>
-    <row r="18" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18">
-        <v>7</v>
-      </c>
-      <c r="P18">
-        <v>822696</v>
-      </c>
-      <c r="Q18">
-        <v>1767.2349750000001</v>
-      </c>
-      <c r="R18">
-        <v>41.002844000000003</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="0"/>
-        <v>14.924295030663659</v>
-      </c>
-    </row>
-    <row r="20" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20">
-        <v>7</v>
-      </c>
-      <c r="P20">
-        <v>823536</v>
-      </c>
-      <c r="Q20">
-        <v>4475.4722599999996</v>
-      </c>
-      <c r="R20">
-        <v>6.1999839999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21">
-        <v>7</v>
-      </c>
-      <c r="P21">
-        <v>823494</v>
-      </c>
-      <c r="Q21">
-        <v>2344.0271050000001</v>
-      </c>
-      <c r="R21">
-        <v>3.3348559999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22">
-        <v>7</v>
-      </c>
-      <c r="P22">
-        <v>822738</v>
-      </c>
-      <c r="Q22">
-        <v>2713.3681790000001</v>
-      </c>
-      <c r="R22">
-        <v>2.8097460000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23">
-        <v>7</v>
-      </c>
-      <c r="P23">
-        <v>822696</v>
-      </c>
-      <c r="Q23">
-        <v>2057.7037869999999</v>
-      </c>
-      <c r="R23">
-        <v>2.7473890000000001</v>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Praca dyplomowa, wyniki.xlsx
+++ b/Praca dyplomowa, wyniki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TTT ab 1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,10 @@
     <sheet name="CF mm" sheetId="4" r:id="rId3"/>
     <sheet name="Fake CF ab" sheetId="6" r:id="rId4"/>
     <sheet name="CF real AB" sheetId="7" r:id="rId5"/>
-    <sheet name="TTT real AB" sheetId="8" r:id="rId6"/>
-    <sheet name="TTT CvC" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
+    <sheet name="TTT real AB" sheetId="8" r:id="rId7"/>
+    <sheet name="TTT CvC" sheetId="5" r:id="rId8"/>
+    <sheet name="Graph vs" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="26">
   <si>
     <t>Iteration</t>
   </si>
@@ -81,6 +83,33 @@
   </si>
   <si>
     <t>Player 2</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>good ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm ab </t>
+  </si>
+  <si>
+    <t>Min-Max</t>
+  </si>
+  <si>
+    <t>Alpha-Beta</t>
+  </si>
+  <si>
+    <t>Improved Alpha-Beta</t>
+  </si>
+  <si>
+    <t>Depth 7</t>
+  </si>
+  <si>
+    <t>Depth 5</t>
+  </si>
+  <si>
+    <t>Depth 3</t>
   </si>
 </sst>
 </file>
@@ -3599,6 +3628,829 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Average time of finding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> best possible move</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graph vs'!$C$4:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min-Max</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alpha-Beta</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Improved Alpha-Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graph vs'!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2927.6987036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2881.7310616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.809001599999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E3B-4E8A-922D-20EF1ABBA6DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="321271408"/>
+        <c:axId val="321272392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="321271408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321272392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321272392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321271408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average time of finding best possible move</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph vs'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min-Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Depth 7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Depth 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$4:$F$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2927.6987036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.442805400000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE15-4DC1-951A-3E58E6FB19A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph vs'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha-Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Depth 7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Depth 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$5:$F$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2881.7310616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.307647800000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE15-4DC1-951A-3E58E6FB19A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph vs'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved Alpha-Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Depth 7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Depth 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>15.809001599999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0564109999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE15-4DC1-951A-3E58E6FB19A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="315715832"/>
+        <c:axId val="315712224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="315715832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315712224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315712224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315715832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3879,6 +4731,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7368,6 +8300,1016 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7668,6 +9610,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABC0738-C131-47FF-8CB3-FE6D660462C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1585912</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A9BB81-AC80-40BD-9F67-F49FCC831623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9838,7 +11857,7 @@
   <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13480,8 +15499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14169,6 +16188,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G19"/>
   <sheetViews>
@@ -14401,7 +16432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L12"/>
   <sheetViews>
@@ -14741,4 +16772,1055 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AK26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>960793</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>5000.0266670000001</v>
+      </c>
+      <c r="W2">
+        <v>57.800708</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>19608</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>31.481636000000002</v>
+      </c>
+      <c r="AD2">
+        <v>1.0998760000000001</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>400</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0.56245100000000003</v>
+      </c>
+      <c r="AK2">
+        <v>7.3839999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>960793</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>2795.5227960000002</v>
+      </c>
+      <c r="W3">
+        <v>44.380664000000003</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>19608</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>29.222398999999999</v>
+      </c>
+      <c r="AD3">
+        <v>1.267668</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>400</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.877521</v>
+      </c>
+      <c r="AK3">
+        <v>1.8872E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(H4:H8)</f>
+        <v>2927.6987036</v>
+      </c>
+      <c r="E4" s="4">
+        <f>AVERAGE(AC2:AC6)</f>
+        <v>30.442805400000005</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(AJ2:AJ6)</f>
+        <v>0.71653979999999995</v>
+      </c>
+      <c r="H4">
+        <v>3543.1468840000002</v>
+      </c>
+      <c r="J4">
+        <v>2822.6344669999999</v>
+      </c>
+      <c r="L4">
+        <v>23.800557000000001</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>960793</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>3186.6092480000002</v>
+      </c>
+      <c r="W4">
+        <v>43.604475000000001</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>19608</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>26.500810999999999</v>
+      </c>
+      <c r="AD4">
+        <v>1.2065410000000001</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>400</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>1.031774</v>
+      </c>
+      <c r="AK4">
+        <v>1.5179E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <f>D4-AVERAGE(W2:W7)</f>
+        <v>2881.7310616</v>
+      </c>
+      <c r="E5" s="4">
+        <f>E4-AVERAGE(AD2:AD6)</f>
+        <v>29.307647800000005</v>
+      </c>
+      <c r="F5">
+        <f>F4-AVERAGE(AK2:AK6)</f>
+        <v>0.70488899999999999</v>
+      </c>
+      <c r="H5">
+        <v>3186.6092480000002</v>
+      </c>
+      <c r="J5">
+        <v>2945.0570819999998</v>
+      </c>
+      <c r="L5">
+        <v>12.094120999999999</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>960793</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>2409.0902000000001</v>
+      </c>
+      <c r="W5">
+        <v>43.496580000000002</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>19608</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>38.515754000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.93741799999999997</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>400</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0.54850200000000005</v>
+      </c>
+      <c r="AK5">
+        <v>9.025E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(L4:L8)</f>
+        <v>15.809001599999998</v>
+      </c>
+      <c r="E6" s="4">
+        <f>AVERAGE(AD20:AD24)</f>
+        <v>2.0564109999999998</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(AK20:AK24)</f>
+        <v>9.26342E-2</v>
+      </c>
+      <c r="H6">
+        <v>2409.0902000000001</v>
+      </c>
+      <c r="J6">
+        <v>3188.9681759999999</v>
+      </c>
+      <c r="L6">
+        <v>11.790537</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>960793</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>2677.0127189999998</v>
+      </c>
+      <c r="W6">
+        <v>43.805906999999998</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>19608</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>26.493427000000001</v>
+      </c>
+      <c r="AD6">
+        <v>1.164285</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <v>400</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0.56245100000000003</v>
+      </c>
+      <c r="AK6">
+        <v>7.7939999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="H7">
+        <v>2677.0127189999998</v>
+      </c>
+      <c r="J7">
+        <v>1670.2505960000001</v>
+      </c>
+      <c r="L7">
+        <v>16.471881</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>960793</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2822.6344669999999</v>
+      </c>
+      <c r="W7">
+        <v>42.717517999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>2822.6344669999999</v>
+      </c>
+      <c r="J8">
+        <v>2937.3501569999999</v>
+      </c>
+      <c r="L8">
+        <v>14.887912</v>
+      </c>
+    </row>
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>57414</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>3843.1468840000002</v>
+      </c>
+      <c r="W11">
+        <v>3.4981870000000002</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>3620</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>36.802146999999998</v>
+      </c>
+      <c r="AD11">
+        <v>0.68716600000000005</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AH11">
+        <v>215</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0.49517</v>
+      </c>
+      <c r="AK11">
+        <v>4.5129999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>57414</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>2945.0570819999998</v>
+      </c>
+      <c r="W12">
+        <v>3.438291</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>3620</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>30.629141000000001</v>
+      </c>
+      <c r="AD12">
+        <v>0.28225</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <v>215</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0.474657</v>
+      </c>
+      <c r="AK12">
+        <v>6.5640000000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>57414</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>3188.9681759999999</v>
+      </c>
+      <c r="W13">
+        <v>3.4042400000000002</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>3620</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>24.541466</v>
+      </c>
+      <c r="AD13">
+        <v>0.28471200000000002</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <v>215</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0.721217</v>
+      </c>
+      <c r="AK13">
+        <v>1.1897E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>57414</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1670.2505960000001</v>
+      </c>
+      <c r="W14">
+        <v>3.166296</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>3620</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>35.768732</v>
+      </c>
+      <c r="AD14">
+        <v>0.19814999999999999</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AH14">
+        <v>215</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0.52675899999999998</v>
+      </c>
+      <c r="AK14">
+        <v>7.7939999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>57414</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>2937.3501569999999</v>
+      </c>
+      <c r="W15">
+        <v>3.457983</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>3620</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>24.725256000000002</v>
+      </c>
+      <c r="AD15">
+        <v>0.30030200000000001</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AH15">
+        <v>215</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="AK15">
+        <v>5.744E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>57414</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>3215.084175</v>
+      </c>
+      <c r="W16">
+        <v>3.9383840000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>13167</v>
+      </c>
+      <c r="U20">
+        <v>2540</v>
+      </c>
+      <c r="V20">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="W20">
+        <v>23.800557000000001</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>982</v>
+      </c>
+      <c r="AB20">
+        <v>149</v>
+      </c>
+      <c r="AC20">
+        <v>1.4489970000000001</v>
+      </c>
+      <c r="AD20">
+        <v>5.3566120000000002</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG20">
+        <v>3</v>
+      </c>
+      <c r="AH20">
+        <v>76</v>
+      </c>
+      <c r="AI20">
+        <v>12</v>
+      </c>
+      <c r="AJ20">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="AK20">
+        <v>8.8613999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>13167</v>
+      </c>
+      <c r="U21">
+        <v>2540</v>
+      </c>
+      <c r="V21">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="W21">
+        <v>12.094120999999999</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>982</v>
+      </c>
+      <c r="AB21">
+        <v>149</v>
+      </c>
+      <c r="AC21">
+        <v>2.0509999999999999E-3</v>
+      </c>
+      <c r="AD21">
+        <v>1.4100239999999999</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+      <c r="AH21">
+        <v>76</v>
+      </c>
+      <c r="AI21">
+        <v>12</v>
+      </c>
+      <c r="AJ21">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="AK21">
+        <v>0.106665</v>
+      </c>
+    </row>
+    <row r="22" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>13167</v>
+      </c>
+      <c r="U22">
+        <v>2540</v>
+      </c>
+      <c r="V22">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="W22">
+        <v>11.790537</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>982</v>
+      </c>
+      <c r="AB22">
+        <v>149</v>
+      </c>
+      <c r="AC22">
+        <v>2.0509999999999999E-3</v>
+      </c>
+      <c r="AD22">
+        <v>1.5737129999999999</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG22">
+        <v>3</v>
+      </c>
+      <c r="AH22">
+        <v>76</v>
+      </c>
+      <c r="AI22">
+        <v>12</v>
+      </c>
+      <c r="AJ22">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="AK22">
+        <v>8.0407999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>13167</v>
+      </c>
+      <c r="U23">
+        <v>2540</v>
+      </c>
+      <c r="V23">
+        <v>1.23E-3</v>
+      </c>
+      <c r="W23">
+        <v>16.471881</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+      <c r="AA23">
+        <v>982</v>
+      </c>
+      <c r="AB23">
+        <v>149</v>
+      </c>
+      <c r="AC23">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="AD23">
+        <v>0.99116000000000004</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG23">
+        <v>3</v>
+      </c>
+      <c r="AH23">
+        <v>76</v>
+      </c>
+      <c r="AI23">
+        <v>12</v>
+      </c>
+      <c r="AJ23">
+        <v>1.23E-3</v>
+      </c>
+      <c r="AK23">
+        <v>9.2716000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>13167</v>
+      </c>
+      <c r="U24">
+        <v>2540</v>
+      </c>
+      <c r="V24">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="W24">
+        <v>14.887912</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>982</v>
+      </c>
+      <c r="AB24">
+        <v>149</v>
+      </c>
+      <c r="AC24">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="AD24">
+        <v>0.950546</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG24">
+        <v>3</v>
+      </c>
+      <c r="AH24">
+        <v>76</v>
+      </c>
+      <c r="AI24">
+        <v>12</v>
+      </c>
+      <c r="AJ24">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="AK24">
+        <v>9.4768000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>13167</v>
+      </c>
+      <c r="U25">
+        <v>2540</v>
+      </c>
+      <c r="V25">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="W25">
+        <v>10.918348999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>13167</v>
+      </c>
+      <c r="U26">
+        <v>2540</v>
+      </c>
+      <c r="V26">
+        <v>2.9947999999999999E-2</v>
+      </c>
+      <c r="W26">
+        <v>10.8363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Praca dyplomowa, wyniki.xlsx
+++ b/Praca dyplomowa, wyniki.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="12210" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TTT ab 1" sheetId="1" r:id="rId1"/>
     <sheet name="TTT mm" sheetId="3" r:id="rId2"/>
     <sheet name="CF mm" sheetId="4" r:id="rId3"/>
-    <sheet name="Fake CF ab" sheetId="6" r:id="rId4"/>
-    <sheet name="CF real AB" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
-    <sheet name="TTT real AB" sheetId="8" r:id="rId7"/>
-    <sheet name="TTT CvC" sheetId="5" r:id="rId8"/>
-    <sheet name="Graph vs" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId4"/>
+    <sheet name="Fake CF ab" sheetId="6" r:id="rId5"/>
+    <sheet name="CF real AB" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="TTT real AB" sheetId="8" r:id="rId8"/>
+    <sheet name="TTT CvC" sheetId="5" r:id="rId9"/>
+    <sheet name="Graph vs" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="27">
   <si>
     <t>Iteration</t>
   </si>
@@ -111,6 +112,9 @@
   <si>
     <t>Depth 3</t>
   </si>
+  <si>
+    <t>Time/Sum</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +126,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +134,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -148,11 +158,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -163,12 +225,52 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -591,6 +693,516 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="330167064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average time of finding best possible move</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph vs'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min-Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Depth 7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Depth 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$4:$F$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2927.6987036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.442805400000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE15-4DC1-951A-3E58E6FB19A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph vs'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha-Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Depth 7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Depth 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$5:$F$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2881.7310616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.307647800000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE15-4DC1-951A-3E58E6FB19A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graph vs'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved Alpha-Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Depth 7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Depth 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Graph vs'!$D$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Graph vs'!$D$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>15.809001599999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0564109999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE15-4DC1-951A-3E58E6FB19A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="315715832"/>
+        <c:axId val="315712224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="315715832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315712224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315712224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315715832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3264,6 +3876,426 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ti</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>me</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> to check each move</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time/Sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>823494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>822696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>815094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>606438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>598703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>559286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>557816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>504462</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>465822</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>421757</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>215915</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>139839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19761</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>6.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2800000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-863C-433B-8408-81C6709843A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="373635800"/>
+        <c:axId val="373636128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="373635800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373636128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373636128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373635800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -3628,7 +4660,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3942,516 +4974,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Average time of finding best possible move</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Graph vs'!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Min-Max</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Graph vs'!$D$3:$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Depth 7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Depth 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Graph vs'!$D$4:$F$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Graph vs'!$D$4:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>2927.6987036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.442805400000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE15-4DC1-951A-3E58E6FB19A6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Graph vs'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Alpha-Beta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Graph vs'!$D$3:$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Depth 7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Depth 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Graph vs'!$D$5:$F$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Graph vs'!$D$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>2881.7310616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.307647800000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE15-4DC1-951A-3E58E6FB19A6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Graph vs'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Improved Alpha-Beta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Graph vs'!$D$3:$F$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Graph vs'!$D$3:$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Depth 7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Depth 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Graph vs'!$D$6:$F$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Graph vs'!$D$6:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>15.809001599999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0564109999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BE15-4DC1-951A-3E58E6FB19A6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="315715832"/>
-        <c:axId val="315712224"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="315715832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315712224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="315712224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315715832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5314,8 +5877,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5519,22 +6082,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5639,8 +6203,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5772,19 +6336,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5817,7 +6382,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6320,7 +6885,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6823,7 +7388,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7326,7 +7891,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7829,7 +8394,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8332,8 +8897,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8537,23 +9102,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8658,8 +9222,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8791,12 +9355,302 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8805,6 +9659,218 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8838,7 +9904,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9582,6 +10648,47 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1207514-2CC7-49F6-B18A-ECBEC46A04B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -9618,7 +10725,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9994,7 +11101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
@@ -10963,6 +12070,1057 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AK26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>960793</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>5000.0266670000001</v>
+      </c>
+      <c r="W2">
+        <v>57.800708</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>19608</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>31.481636000000002</v>
+      </c>
+      <c r="AD2">
+        <v>1.0998760000000001</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>400</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0.56245100000000003</v>
+      </c>
+      <c r="AK2">
+        <v>7.3839999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>960793</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>2795.5227960000002</v>
+      </c>
+      <c r="W3">
+        <v>44.380664000000003</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>19608</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>29.222398999999999</v>
+      </c>
+      <c r="AD3">
+        <v>1.267668</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>400</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.877521</v>
+      </c>
+      <c r="AK3">
+        <v>1.8872E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(H4:H8)</f>
+        <v>2927.6987036</v>
+      </c>
+      <c r="E4" s="4">
+        <f>AVERAGE(AC2:AC6)</f>
+        <v>30.442805400000005</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(AJ2:AJ6)</f>
+        <v>0.71653979999999995</v>
+      </c>
+      <c r="H4">
+        <v>3543.1468840000002</v>
+      </c>
+      <c r="J4">
+        <v>2822.6344669999999</v>
+      </c>
+      <c r="L4">
+        <v>23.800557000000001</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>960793</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>3186.6092480000002</v>
+      </c>
+      <c r="W4">
+        <v>43.604475000000001</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>19608</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>26.500810999999999</v>
+      </c>
+      <c r="AD4">
+        <v>1.2065410000000001</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>400</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>1.031774</v>
+      </c>
+      <c r="AK4">
+        <v>1.5179E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <f>D4-AVERAGE(W2:W7)</f>
+        <v>2881.7310616</v>
+      </c>
+      <c r="E5" s="4">
+        <f>E4-AVERAGE(AD2:AD6)</f>
+        <v>29.307647800000005</v>
+      </c>
+      <c r="F5">
+        <f>F4-AVERAGE(AK2:AK6)</f>
+        <v>0.70488899999999999</v>
+      </c>
+      <c r="H5">
+        <v>3186.6092480000002</v>
+      </c>
+      <c r="J5">
+        <v>2945.0570819999998</v>
+      </c>
+      <c r="L5">
+        <v>12.094120999999999</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>960793</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>2409.0902000000001</v>
+      </c>
+      <c r="W5">
+        <v>43.496580000000002</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>19608</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>38.515754000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.93741799999999997</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>400</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0.54850200000000005</v>
+      </c>
+      <c r="AK5">
+        <v>9.025E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(L4:L8)</f>
+        <v>15.809001599999998</v>
+      </c>
+      <c r="E6" s="4">
+        <f>AVERAGE(AD20:AD24)</f>
+        <v>2.0564109999999998</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(AK20:AK24)</f>
+        <v>9.26342E-2</v>
+      </c>
+      <c r="H6">
+        <v>2409.0902000000001</v>
+      </c>
+      <c r="J6">
+        <v>3188.9681759999999</v>
+      </c>
+      <c r="L6">
+        <v>11.790537</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>960793</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>2677.0127189999998</v>
+      </c>
+      <c r="W6">
+        <v>43.805906999999998</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>19608</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>26.493427000000001</v>
+      </c>
+      <c r="AD6">
+        <v>1.164285</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <v>400</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0.56245100000000003</v>
+      </c>
+      <c r="AK6">
+        <v>7.7939999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="H7">
+        <v>2677.0127189999998</v>
+      </c>
+      <c r="J7">
+        <v>1670.2505960000001</v>
+      </c>
+      <c r="L7">
+        <v>16.471881</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>960793</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2822.6344669999999</v>
+      </c>
+      <c r="W7">
+        <v>42.717517999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>2822.6344669999999</v>
+      </c>
+      <c r="J8">
+        <v>2937.3501569999999</v>
+      </c>
+      <c r="L8">
+        <v>14.887912</v>
+      </c>
+    </row>
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>57414</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>3843.1468840000002</v>
+      </c>
+      <c r="W11">
+        <v>3.4981870000000002</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>3620</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>36.802146999999998</v>
+      </c>
+      <c r="AD11">
+        <v>0.68716600000000005</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AH11">
+        <v>215</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0.49517</v>
+      </c>
+      <c r="AK11">
+        <v>4.5129999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>57414</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>2945.0570819999998</v>
+      </c>
+      <c r="W12">
+        <v>3.438291</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>3620</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>30.629141000000001</v>
+      </c>
+      <c r="AD12">
+        <v>0.28225</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <v>215</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0.474657</v>
+      </c>
+      <c r="AK12">
+        <v>6.5640000000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>57414</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>3188.9681759999999</v>
+      </c>
+      <c r="W13">
+        <v>3.4042400000000002</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>3620</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>24.541466</v>
+      </c>
+      <c r="AD13">
+        <v>0.28471200000000002</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <v>215</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0.721217</v>
+      </c>
+      <c r="AK13">
+        <v>1.1897E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>57414</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1670.2505960000001</v>
+      </c>
+      <c r="W14">
+        <v>3.166296</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>3620</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>35.768732</v>
+      </c>
+      <c r="AD14">
+        <v>0.19814999999999999</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AH14">
+        <v>215</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0.52675899999999998</v>
+      </c>
+      <c r="AK14">
+        <v>7.7939999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>57414</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>2937.3501569999999</v>
+      </c>
+      <c r="W15">
+        <v>3.457983</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>3620</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>24.725256000000002</v>
+      </c>
+      <c r="AD15">
+        <v>0.30030200000000001</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AH15">
+        <v>215</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="AK15">
+        <v>5.744E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>57414</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>3215.084175</v>
+      </c>
+      <c r="W16">
+        <v>3.9383840000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>13167</v>
+      </c>
+      <c r="U20">
+        <v>2540</v>
+      </c>
+      <c r="V20">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="W20">
+        <v>23.800557000000001</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>982</v>
+      </c>
+      <c r="AB20">
+        <v>149</v>
+      </c>
+      <c r="AC20">
+        <v>1.4489970000000001</v>
+      </c>
+      <c r="AD20">
+        <v>5.3566120000000002</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG20">
+        <v>3</v>
+      </c>
+      <c r="AH20">
+        <v>76</v>
+      </c>
+      <c r="AI20">
+        <v>12</v>
+      </c>
+      <c r="AJ20">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="AK20">
+        <v>8.8613999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>13167</v>
+      </c>
+      <c r="U21">
+        <v>2540</v>
+      </c>
+      <c r="V21">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="W21">
+        <v>12.094120999999999</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21">
+        <v>5</v>
+      </c>
+      <c r="AA21">
+        <v>982</v>
+      </c>
+      <c r="AB21">
+        <v>149</v>
+      </c>
+      <c r="AC21">
+        <v>2.0509999999999999E-3</v>
+      </c>
+      <c r="AD21">
+        <v>1.4100239999999999</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+      <c r="AH21">
+        <v>76</v>
+      </c>
+      <c r="AI21">
+        <v>12</v>
+      </c>
+      <c r="AJ21">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="AK21">
+        <v>0.106665</v>
+      </c>
+    </row>
+    <row r="22" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>13167</v>
+      </c>
+      <c r="U22">
+        <v>2540</v>
+      </c>
+      <c r="V22">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="W22">
+        <v>11.790537</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>982</v>
+      </c>
+      <c r="AB22">
+        <v>149</v>
+      </c>
+      <c r="AC22">
+        <v>2.0509999999999999E-3</v>
+      </c>
+      <c r="AD22">
+        <v>1.5737129999999999</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG22">
+        <v>3</v>
+      </c>
+      <c r="AH22">
+        <v>76</v>
+      </c>
+      <c r="AI22">
+        <v>12</v>
+      </c>
+      <c r="AJ22">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="AK22">
+        <v>8.0407999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>13167</v>
+      </c>
+      <c r="U23">
+        <v>2540</v>
+      </c>
+      <c r="V23">
+        <v>1.23E-3</v>
+      </c>
+      <c r="W23">
+        <v>16.471881</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z23">
+        <v>5</v>
+      </c>
+      <c r="AA23">
+        <v>982</v>
+      </c>
+      <c r="AB23">
+        <v>149</v>
+      </c>
+      <c r="AC23">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="AD23">
+        <v>0.99116000000000004</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG23">
+        <v>3</v>
+      </c>
+      <c r="AH23">
+        <v>76</v>
+      </c>
+      <c r="AI23">
+        <v>12</v>
+      </c>
+      <c r="AJ23">
+        <v>1.23E-3</v>
+      </c>
+      <c r="AK23">
+        <v>9.2716000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>13167</v>
+      </c>
+      <c r="U24">
+        <v>2540</v>
+      </c>
+      <c r="V24">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="W24">
+        <v>14.887912</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>982</v>
+      </c>
+      <c r="AB24">
+        <v>149</v>
+      </c>
+      <c r="AC24">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="AD24">
+        <v>0.950546</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG24">
+        <v>3</v>
+      </c>
+      <c r="AH24">
+        <v>76</v>
+      </c>
+      <c r="AI24">
+        <v>12</v>
+      </c>
+      <c r="AJ24">
+        <v>1.6410000000000001E-3</v>
+      </c>
+      <c r="AK24">
+        <v>9.4768000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>13167</v>
+      </c>
+      <c r="U25">
+        <v>2540</v>
+      </c>
+      <c r="V25">
+        <v>1.2310000000000001E-3</v>
+      </c>
+      <c r="W25">
+        <v>10.918348999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="18:37" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>13167</v>
+      </c>
+      <c r="U26">
+        <v>2540</v>
+      </c>
+      <c r="V26">
+        <v>2.9947999999999999E-2</v>
+      </c>
+      <c r="W26">
+        <v>10.8363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11856,7 +14014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -14151,10 +16309,407 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13">
+        <v>823494</v>
+      </c>
+      <c r="C2" s="13">
+        <v>5000.7629999999999</v>
+      </c>
+      <c r="D2" s="13">
+        <v>59.060046</v>
+      </c>
+      <c r="E2" s="13">
+        <v>5059.8226999999997</v>
+      </c>
+      <c r="F2" s="13">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13">
+        <v>822696</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2777.6289999999999</v>
+      </c>
+      <c r="D3" s="13">
+        <v>41.074635999999998</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2818.7035000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>815094</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2990.136</v>
+      </c>
+      <c r="D4" s="13">
+        <v>41.067661999999999</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3031.2037999999998</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>606438</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2595.779</v>
+      </c>
+      <c r="D5" s="13">
+        <v>37.321334</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2633.1007</v>
+      </c>
+      <c r="F5" s="13">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13">
+        <v>598703</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1529.6079999999999</v>
+      </c>
+      <c r="D6" s="13">
+        <v>30.930178000000002</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1560.5383999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <v>559286</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1700.5150000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>37.146982000000001</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1737.6623</v>
+      </c>
+      <c r="F7" s="13">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>557816</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1575.222</v>
+      </c>
+      <c r="D8" s="13">
+        <v>29.114037</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1604.3358000000001</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>512211</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1869.4269999999999</v>
+      </c>
+      <c r="D9" s="13">
+        <v>27.141596</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1896.5686000000001</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>512127</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1395.575</v>
+      </c>
+      <c r="D10" s="13">
+        <v>27.042726999999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1422.6175000000001</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13">
+        <v>504462</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1297.595</v>
+      </c>
+      <c r="D11" s="13">
+        <v>26.271062000000001</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1323.8658</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13">
+        <v>465822</v>
+      </c>
+      <c r="C12" s="13">
+        <v>953.23979999999995</v>
+      </c>
+      <c r="D12" s="13">
+        <v>25.857129</v>
+      </c>
+      <c r="E12" s="13">
+        <v>979.09699999999998</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13">
+        <v>421757</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1034.3320000000001</v>
+      </c>
+      <c r="D13" s="13">
+        <v>23.832585999999999</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1058.1649</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13">
+        <v>215915</v>
+      </c>
+      <c r="C14" s="13">
+        <v>425.53109999999998</v>
+      </c>
+      <c r="D14" s="13">
+        <v>13.272551999999999</v>
+      </c>
+      <c r="E14" s="13">
+        <v>438.80360000000002</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13">
+        <v>139839</v>
+      </c>
+      <c r="C15" s="13">
+        <v>397.21859999999998</v>
+      </c>
+      <c r="D15" s="13">
+        <v>9.5188400000000009</v>
+      </c>
+      <c r="E15" s="13">
+        <v>406.73750000000001</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>7</v>
+      </c>
+      <c r="B16" s="13">
+        <v>37457</v>
+      </c>
+      <c r="C16" s="13">
+        <v>89.038049999999998</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2.671084</v>
+      </c>
+      <c r="E16" s="13">
+        <v>91.709100000000007</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>7</v>
+      </c>
+      <c r="B17" s="13">
+        <v>19761</v>
+      </c>
+      <c r="C17" s="13">
+        <v>53.863509999999998</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1.8456779999999999</v>
+      </c>
+      <c r="E17" s="13">
+        <v>55.709200000000003</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>7</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4515</v>
+      </c>
+      <c r="C18" s="13">
+        <v>14.395379999999999</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.51485300000000001</v>
+      </c>
+      <c r="E18" s="13">
+        <v>14.9102</v>
+      </c>
+      <c r="F18" s="13">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>7</v>
+      </c>
+      <c r="B19" s="13">
+        <v>420</v>
+      </c>
+      <c r="C19" s="13">
+        <v>5.2584790000000003</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.13291800000000001</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5.3914</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="D3:H3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15495,7 +18050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:W42"/>
   <sheetViews>
@@ -16187,7 +18742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16199,7 +18754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G19"/>
   <sheetViews>
@@ -16432,7 +18987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L12"/>
   <sheetViews>
@@ -16772,1055 +19327,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AK26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2">
-        <v>7</v>
-      </c>
-      <c r="T2">
-        <v>960793</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>5000.0266670000001</v>
-      </c>
-      <c r="W2">
-        <v>57.800708</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
-        <v>19608</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>31.481636000000002</v>
-      </c>
-      <c r="AD2">
-        <v>1.0998760000000001</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG2">
-        <v>3</v>
-      </c>
-      <c r="AH2">
-        <v>400</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0.56245100000000003</v>
-      </c>
-      <c r="AK2">
-        <v>7.3839999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>960793</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>2795.5227960000002</v>
-      </c>
-      <c r="W3">
-        <v>44.380664000000003</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3">
-        <v>5</v>
-      </c>
-      <c r="AA3">
-        <v>19608</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>29.222398999999999</v>
-      </c>
-      <c r="AD3">
-        <v>1.267668</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG3">
-        <v>3</v>
-      </c>
-      <c r="AH3">
-        <v>400</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0.877521</v>
-      </c>
-      <c r="AK3">
-        <v>1.8872E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <f>AVERAGE(H4:H8)</f>
-        <v>2927.6987036</v>
-      </c>
-      <c r="E4" s="4">
-        <f>AVERAGE(AC2:AC6)</f>
-        <v>30.442805400000005</v>
-      </c>
-      <c r="F4">
-        <f>AVERAGE(AJ2:AJ6)</f>
-        <v>0.71653979999999995</v>
-      </c>
-      <c r="H4">
-        <v>3543.1468840000002</v>
-      </c>
-      <c r="J4">
-        <v>2822.6344669999999</v>
-      </c>
-      <c r="L4">
-        <v>23.800557000000001</v>
-      </c>
-      <c r="R4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4">
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <v>960793</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>3186.6092480000002</v>
-      </c>
-      <c r="W4">
-        <v>43.604475000000001</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4">
-        <v>5</v>
-      </c>
-      <c r="AA4">
-        <v>19608</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>26.500810999999999</v>
-      </c>
-      <c r="AD4">
-        <v>1.2065410000000001</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG4">
-        <v>3</v>
-      </c>
-      <c r="AH4">
-        <v>400</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>1.031774</v>
-      </c>
-      <c r="AK4">
-        <v>1.5179E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <f>D4-AVERAGE(W2:W7)</f>
-        <v>2881.7310616</v>
-      </c>
-      <c r="E5" s="4">
-        <f>E4-AVERAGE(AD2:AD6)</f>
-        <v>29.307647800000005</v>
-      </c>
-      <c r="F5">
-        <f>F4-AVERAGE(AK2:AK6)</f>
-        <v>0.70488899999999999</v>
-      </c>
-      <c r="H5">
-        <v>3186.6092480000002</v>
-      </c>
-      <c r="J5">
-        <v>2945.0570819999998</v>
-      </c>
-      <c r="L5">
-        <v>12.094120999999999</v>
-      </c>
-      <c r="R5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5">
-        <v>7</v>
-      </c>
-      <c r="T5">
-        <v>960793</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>2409.0902000000001</v>
-      </c>
-      <c r="W5">
-        <v>43.496580000000002</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5">
-        <v>5</v>
-      </c>
-      <c r="AA5">
-        <v>19608</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>38.515754000000001</v>
-      </c>
-      <c r="AD5">
-        <v>0.93741799999999997</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG5">
-        <v>3</v>
-      </c>
-      <c r="AH5">
-        <v>400</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0.54850200000000005</v>
-      </c>
-      <c r="AK5">
-        <v>9.025E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <f>AVERAGE(L4:L8)</f>
-        <v>15.809001599999998</v>
-      </c>
-      <c r="E6" s="4">
-        <f>AVERAGE(AD20:AD24)</f>
-        <v>2.0564109999999998</v>
-      </c>
-      <c r="F6">
-        <f>AVERAGE(AK20:AK24)</f>
-        <v>9.26342E-2</v>
-      </c>
-      <c r="H6">
-        <v>2409.0902000000001</v>
-      </c>
-      <c r="J6">
-        <v>3188.9681759999999</v>
-      </c>
-      <c r="L6">
-        <v>11.790537</v>
-      </c>
-      <c r="R6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
-      <c r="T6">
-        <v>960793</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>2677.0127189999998</v>
-      </c>
-      <c r="W6">
-        <v>43.805906999999998</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6">
-        <v>5</v>
-      </c>
-      <c r="AA6">
-        <v>19608</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>26.493427000000001</v>
-      </c>
-      <c r="AD6">
-        <v>1.164285</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG6">
-        <v>3</v>
-      </c>
-      <c r="AH6">
-        <v>400</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0.56245100000000003</v>
-      </c>
-      <c r="AK6">
-        <v>7.7939999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-      <c r="H7">
-        <v>2677.0127189999998</v>
-      </c>
-      <c r="J7">
-        <v>1670.2505960000001</v>
-      </c>
-      <c r="L7">
-        <v>16.471881</v>
-      </c>
-      <c r="R7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <v>960793</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>2822.6344669999999</v>
-      </c>
-      <c r="W7">
-        <v>42.717517999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="H8">
-        <v>2822.6344669999999</v>
-      </c>
-      <c r="J8">
-        <v>2937.3501569999999</v>
-      </c>
-      <c r="L8">
-        <v>14.887912</v>
-      </c>
-    </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="R11" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11">
-        <v>7</v>
-      </c>
-      <c r="T11">
-        <v>57414</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>3843.1468840000002</v>
-      </c>
-      <c r="W11">
-        <v>3.4981870000000002</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z11">
-        <v>5</v>
-      </c>
-      <c r="AA11">
-        <v>3620</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>36.802146999999998</v>
-      </c>
-      <c r="AD11">
-        <v>0.68716600000000005</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG11">
-        <v>3</v>
-      </c>
-      <c r="AH11">
-        <v>215</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0.49517</v>
-      </c>
-      <c r="AK11">
-        <v>4.5129999999999997E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="R12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12">
-        <v>7</v>
-      </c>
-      <c r="T12">
-        <v>57414</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>2945.0570819999998</v>
-      </c>
-      <c r="W12">
-        <v>3.438291</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z12">
-        <v>5</v>
-      </c>
-      <c r="AA12">
-        <v>3620</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>30.629141000000001</v>
-      </c>
-      <c r="AD12">
-        <v>0.28225</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG12">
-        <v>3</v>
-      </c>
-      <c r="AH12">
-        <v>215</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0.474657</v>
-      </c>
-      <c r="AK12">
-        <v>6.5640000000000004E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="R13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13">
-        <v>7</v>
-      </c>
-      <c r="T13">
-        <v>57414</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>3188.9681759999999</v>
-      </c>
-      <c r="W13">
-        <v>3.4042400000000002</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-      <c r="AA13">
-        <v>3620</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>24.541466</v>
-      </c>
-      <c r="AD13">
-        <v>0.28471200000000002</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG13">
-        <v>3</v>
-      </c>
-      <c r="AH13">
-        <v>215</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0.721217</v>
-      </c>
-      <c r="AK13">
-        <v>1.1897E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="R14" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>57414</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>1670.2505960000001</v>
-      </c>
-      <c r="W14">
-        <v>3.166296</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z14">
-        <v>5</v>
-      </c>
-      <c r="AA14">
-        <v>3620</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>35.768732</v>
-      </c>
-      <c r="AD14">
-        <v>0.19814999999999999</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG14">
-        <v>3</v>
-      </c>
-      <c r="AH14">
-        <v>215</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0.52675899999999998</v>
-      </c>
-      <c r="AK14">
-        <v>7.7939999999999997E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="R15" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15">
-        <v>7</v>
-      </c>
-      <c r="T15">
-        <v>57414</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>2937.3501569999999</v>
-      </c>
-      <c r="W15">
-        <v>3.457983</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z15">
-        <v>5</v>
-      </c>
-      <c r="AA15">
-        <v>3620</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>24.725256000000002</v>
-      </c>
-      <c r="AD15">
-        <v>0.30030200000000001</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG15">
-        <v>3</v>
-      </c>
-      <c r="AH15">
-        <v>215</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0.49640000000000001</v>
-      </c>
-      <c r="AK15">
-        <v>5.744E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="R16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16">
-        <v>7</v>
-      </c>
-      <c r="T16">
-        <v>57414</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>3215.084175</v>
-      </c>
-      <c r="W16">
-        <v>3.9383840000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="18:37" x14ac:dyDescent="0.25">
-      <c r="R20" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20">
-        <v>7</v>
-      </c>
-      <c r="T20">
-        <v>13167</v>
-      </c>
-      <c r="U20">
-        <v>2540</v>
-      </c>
-      <c r="V20">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="W20">
-        <v>23.800557000000001</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z20">
-        <v>5</v>
-      </c>
-      <c r="AA20">
-        <v>982</v>
-      </c>
-      <c r="AB20">
-        <v>149</v>
-      </c>
-      <c r="AC20">
-        <v>1.4489970000000001</v>
-      </c>
-      <c r="AD20">
-        <v>5.3566120000000002</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG20">
-        <v>3</v>
-      </c>
-      <c r="AH20">
-        <v>76</v>
-      </c>
-      <c r="AI20">
-        <v>12</v>
-      </c>
-      <c r="AJ20">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="AK20">
-        <v>8.8613999999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="18:37" x14ac:dyDescent="0.25">
-      <c r="R21" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21">
-        <v>7</v>
-      </c>
-      <c r="T21">
-        <v>13167</v>
-      </c>
-      <c r="U21">
-        <v>2540</v>
-      </c>
-      <c r="V21">
-        <v>1.6410000000000001E-3</v>
-      </c>
-      <c r="W21">
-        <v>12.094120999999999</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z21">
-        <v>5</v>
-      </c>
-      <c r="AA21">
-        <v>982</v>
-      </c>
-      <c r="AB21">
-        <v>149</v>
-      </c>
-      <c r="AC21">
-        <v>2.0509999999999999E-3</v>
-      </c>
-      <c r="AD21">
-        <v>1.4100239999999999</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG21">
-        <v>3</v>
-      </c>
-      <c r="AH21">
-        <v>76</v>
-      </c>
-      <c r="AI21">
-        <v>12</v>
-      </c>
-      <c r="AJ21">
-        <v>1.6410000000000001E-3</v>
-      </c>
-      <c r="AK21">
-        <v>0.106665</v>
-      </c>
-    </row>
-    <row r="22" spans="18:37" x14ac:dyDescent="0.25">
-      <c r="R22" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22">
-        <v>7</v>
-      </c>
-      <c r="T22">
-        <v>13167</v>
-      </c>
-      <c r="U22">
-        <v>2540</v>
-      </c>
-      <c r="V22">
-        <v>1.6410000000000001E-3</v>
-      </c>
-      <c r="W22">
-        <v>11.790537</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z22">
-        <v>5</v>
-      </c>
-      <c r="AA22">
-        <v>982</v>
-      </c>
-      <c r="AB22">
-        <v>149</v>
-      </c>
-      <c r="AC22">
-        <v>2.0509999999999999E-3</v>
-      </c>
-      <c r="AD22">
-        <v>1.5737129999999999</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG22">
-        <v>3</v>
-      </c>
-      <c r="AH22">
-        <v>76</v>
-      </c>
-      <c r="AI22">
-        <v>12</v>
-      </c>
-      <c r="AJ22">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="AK22">
-        <v>8.0407999999999993E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="18:37" x14ac:dyDescent="0.25">
-      <c r="R23" t="s">
-        <v>11</v>
-      </c>
-      <c r="S23">
-        <v>7</v>
-      </c>
-      <c r="T23">
-        <v>13167</v>
-      </c>
-      <c r="U23">
-        <v>2540</v>
-      </c>
-      <c r="V23">
-        <v>1.23E-3</v>
-      </c>
-      <c r="W23">
-        <v>16.471881</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z23">
-        <v>5</v>
-      </c>
-      <c r="AA23">
-        <v>982</v>
-      </c>
-      <c r="AB23">
-        <v>149</v>
-      </c>
-      <c r="AC23">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="AD23">
-        <v>0.99116000000000004</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG23">
-        <v>3</v>
-      </c>
-      <c r="AH23">
-        <v>76</v>
-      </c>
-      <c r="AI23">
-        <v>12</v>
-      </c>
-      <c r="AJ23">
-        <v>1.23E-3</v>
-      </c>
-      <c r="AK23">
-        <v>9.2716000000000007E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="18:37" x14ac:dyDescent="0.25">
-      <c r="R24" t="s">
-        <v>11</v>
-      </c>
-      <c r="S24">
-        <v>7</v>
-      </c>
-      <c r="T24">
-        <v>13167</v>
-      </c>
-      <c r="U24">
-        <v>2540</v>
-      </c>
-      <c r="V24">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="W24">
-        <v>14.887912</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z24">
-        <v>5</v>
-      </c>
-      <c r="AA24">
-        <v>982</v>
-      </c>
-      <c r="AB24">
-        <v>149</v>
-      </c>
-      <c r="AC24">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="AD24">
-        <v>0.950546</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG24">
-        <v>3</v>
-      </c>
-      <c r="AH24">
-        <v>76</v>
-      </c>
-      <c r="AI24">
-        <v>12</v>
-      </c>
-      <c r="AJ24">
-        <v>1.6410000000000001E-3</v>
-      </c>
-      <c r="AK24">
-        <v>9.4768000000000005E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="18:37" x14ac:dyDescent="0.25">
-      <c r="R25" t="s">
-        <v>11</v>
-      </c>
-      <c r="S25">
-        <v>7</v>
-      </c>
-      <c r="T25">
-        <v>13167</v>
-      </c>
-      <c r="U25">
-        <v>2540</v>
-      </c>
-      <c r="V25">
-        <v>1.2310000000000001E-3</v>
-      </c>
-      <c r="W25">
-        <v>10.918348999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="18:37" x14ac:dyDescent="0.25">
-      <c r="R26" t="s">
-        <v>11</v>
-      </c>
-      <c r="S26">
-        <v>7</v>
-      </c>
-      <c r="T26">
-        <v>13167</v>
-      </c>
-      <c r="U26">
-        <v>2540</v>
-      </c>
-      <c r="V26">
-        <v>2.9947999999999999E-2</v>
-      </c>
-      <c r="W26">
-        <v>10.8363</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>